--- a/Class_VIII/Hindi/Result.xlsx
+++ b/Class_VIII/Hindi/Result.xlsx
@@ -28,256 +28,256 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>Formative Assessment I_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Social Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Social Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English I_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Hindi</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Hindi_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Social Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Social Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English I_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Hindi</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Hindi_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Maths</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Maths_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Maths_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Computer</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Computer_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Computer_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English II</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English II_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English II_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Science</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Science_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Science_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Social Science</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Social Science_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English I</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English I_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English I_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Hindi</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Hindi_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Hindi_pass</t>
+    <t>Formative Assessment-3_Science</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Science_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Science_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_English I</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_English I_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_English I_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Computer</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Computer_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Computer_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Social Science</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Social Science_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Social Science_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Hindi</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Hindi_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Hindi_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_English II</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_English II_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_English II_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Maths</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-3_Maths_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Science</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Science_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Science_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_English I</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_English I_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_English I_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Computer</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Computer_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Computer_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Social Science</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Social Science_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Social Science_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Hindi</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Hindi_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Hindi_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_English II</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_English II_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_English II_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Maths</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Maths_pass</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Science</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Science_total</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Science_pass</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_English I</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_English I_total</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_English I_pass</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Computer</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Computer_total</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Computer_pass</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Social Science</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Social Science_total</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Social Science_pass</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Hindi</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Hindi_total</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Hindi_pass</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_English II</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_English II_total</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_English II_pass</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Maths</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Maths_total</t>
+  </si>
+  <si>
+    <t>Annual Exam-2023_Maths_pass</t>
+  </si>
+  <si>
+    <t>Weightage Science</t>
+  </si>
+  <si>
+    <t>Weightage English I</t>
+  </si>
+  <si>
+    <t>Weightage Computer</t>
+  </si>
+  <si>
+    <t>Weightage Social Science</t>
+  </si>
+  <si>
+    <t>Weightage Hindi</t>
+  </si>
+  <si>
+    <t>Weightage English II</t>
   </si>
   <si>
     <t>Weightage Maths</t>
   </si>
   <si>
-    <t>Weightage Computer</t>
-  </si>
-  <si>
-    <t>Weightage English II</t>
-  </si>
-  <si>
-    <t>Weightage Science</t>
-  </si>
-  <si>
-    <t>Weightage Social Science</t>
-  </si>
-  <si>
-    <t>Weightage English I</t>
-  </si>
-  <si>
-    <t>Weightage Hindi</t>
+    <t>Weightage Science total</t>
+  </si>
+  <si>
+    <t>Weightage English I total</t>
+  </si>
+  <si>
+    <t>Weightage Computer total</t>
+  </si>
+  <si>
+    <t>Weightage Social Science total</t>
+  </si>
+  <si>
+    <t>Weightage Hindi total</t>
+  </si>
+  <si>
+    <t>Weightage English II total</t>
   </si>
   <si>
     <t>Weightage Maths total</t>
   </si>
   <si>
-    <t>Weightage Computer total</t>
-  </si>
-  <si>
-    <t>Weightage English II total</t>
-  </si>
-  <si>
-    <t>Weightage Science total</t>
-  </si>
-  <si>
-    <t>Weightage Social Science total</t>
-  </si>
-  <si>
-    <t>Weightage English I total</t>
-  </si>
-  <si>
-    <t>Weightage Hindi total</t>
+    <t>Result Science</t>
+  </si>
+  <si>
+    <t>Result English I</t>
+  </si>
+  <si>
+    <t>Result Computer</t>
+  </si>
+  <si>
+    <t>Result Social Science</t>
+  </si>
+  <si>
+    <t>Result Hindi</t>
+  </si>
+  <si>
+    <t>Result English II</t>
   </si>
   <si>
     <t>Result Maths</t>
-  </si>
-  <si>
-    <t>Result Computer</t>
-  </si>
-  <si>
-    <t>Result English II</t>
-  </si>
-  <si>
-    <t>Result Science</t>
-  </si>
-  <si>
-    <t>Result Social Science</t>
-  </si>
-  <si>
-    <t>Result English I</t>
-  </si>
-  <si>
-    <t>Result Hindi</t>
   </si>
   <si>
     <t>Total Weightage</t>
@@ -1002,17 +1002,17 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
       <c r="I2">
         <v>25</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -1029,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>25</v>
@@ -1038,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="R2">
         <v>25</v>
@@ -1047,53 +1047,53 @@
         <v>7</v>
       </c>
       <c r="T2">
+        <v>13</v>
+      </c>
+      <c r="U2">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>11</v>
+      </c>
+      <c r="X2">
+        <v>25</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <v>17.5</v>
+      </c>
+      <c r="AA2">
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <v>7</v>
+      </c>
+      <c r="AC2">
+        <v>21</v>
+      </c>
+      <c r="AD2">
+        <v>25</v>
+      </c>
+      <c r="AE2">
+        <v>7</v>
+      </c>
+      <c r="AF2">
+        <v>15.5</v>
+      </c>
+      <c r="AG2">
+        <v>25</v>
+      </c>
+      <c r="AH2">
+        <v>7</v>
+      </c>
+      <c r="AI2">
         <v>18</v>
       </c>
-      <c r="U2">
-        <v>25</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>25</v>
-      </c>
-      <c r="Y2">
-        <v>7</v>
-      </c>
-      <c r="Z2">
-        <v>13.5</v>
-      </c>
-      <c r="AA2">
-        <v>25</v>
-      </c>
-      <c r="AB2">
-        <v>7</v>
-      </c>
-      <c r="AC2">
-        <v>13</v>
-      </c>
-      <c r="AD2">
-        <v>25</v>
-      </c>
-      <c r="AE2">
-        <v>7</v>
-      </c>
-      <c r="AF2">
-        <v>16</v>
-      </c>
-      <c r="AG2">
-        <v>25</v>
-      </c>
-      <c r="AH2">
-        <v>7</v>
-      </c>
-      <c r="AI2">
-        <v>13</v>
-      </c>
       <c r="AJ2">
         <v>25</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AM2">
         <v>25</v>
@@ -1110,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AP2">
         <v>25</v>
@@ -1119,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="AR2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AS2">
         <v>25</v>
@@ -1128,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="AU2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AV2">
         <v>100</v>
@@ -1137,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="AX2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AY2">
         <v>100</v>
@@ -1146,7 +1146,7 @@
         <v>30</v>
       </c>
       <c r="BA2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="BB2">
         <v>100</v>
@@ -1155,7 +1155,7 @@
         <v>30</v>
       </c>
       <c r="BD2">
-        <v>77.5</v>
+        <v>65</v>
       </c>
       <c r="BE2">
         <v>100</v>
@@ -1173,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="BJ2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="BK2">
         <v>100</v>
@@ -1182,7 +1182,7 @@
         <v>30</v>
       </c>
       <c r="BM2">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BN2">
         <v>100</v>
@@ -1191,25 +1191,25 @@
         <v>30</v>
       </c>
       <c r="BP2">
-        <v>46.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="BQ2">
-        <v>52.4</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="BR2">
-        <v>55.2</v>
+        <v>57</v>
       </c>
       <c r="BS2">
-        <v>73.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="BT2">
-        <v>63.2</v>
+        <v>65</v>
       </c>
       <c r="BU2">
-        <v>72.2</v>
+        <v>53.2</v>
       </c>
       <c r="BV2">
-        <v>58.4</v>
+        <v>40.8</v>
       </c>
       <c r="BW2">
         <v>100</v>
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="CK2">
-        <v>421.2</v>
+        <v>430.2</v>
       </c>
       <c r="CL2" t="s">
         <v>108</v>
@@ -1263,10 +1263,10 @@
         <v>700</v>
       </c>
       <c r="CN2">
-        <v>60.17142857142856</v>
+        <v>61.45714285714286</v>
       </c>
       <c r="CO2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -1292,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="K3">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -1310,71 +1310,71 @@
         <v>7</v>
       </c>
       <c r="N3">
+        <v>21</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>16.5</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>14</v>
+      </c>
+      <c r="U3">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>17</v>
+      </c>
+      <c r="X3">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
         <v>19</v>
       </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>22.5</v>
-      </c>
-      <c r="R3">
-        <v>25</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
+      <c r="AA3">
+        <v>25</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>21</v>
+      </c>
+      <c r="AD3">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>21.5</v>
+      </c>
+      <c r="AG3">
+        <v>25</v>
+      </c>
+      <c r="AH3">
+        <v>7</v>
+      </c>
+      <c r="AI3">
         <v>22</v>
       </c>
-      <c r="U3">
-        <v>25</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
-        <v>24</v>
-      </c>
-      <c r="X3">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>7</v>
-      </c>
-      <c r="Z3">
-        <v>14</v>
-      </c>
-      <c r="AA3">
-        <v>25</v>
-      </c>
-      <c r="AB3">
-        <v>7</v>
-      </c>
-      <c r="AC3">
-        <v>21.5</v>
-      </c>
-      <c r="AD3">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>18.5</v>
-      </c>
-      <c r="AG3">
-        <v>25</v>
-      </c>
-      <c r="AH3">
-        <v>7</v>
-      </c>
-      <c r="AI3">
-        <v>17</v>
-      </c>
       <c r="AJ3">
         <v>25</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="AL3">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="AM3">
         <v>25</v>
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="AR3">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AS3">
         <v>25</v>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="AU3">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AV3">
         <v>100</v>
@@ -1418,7 +1418,7 @@
         <v>30</v>
       </c>
       <c r="AX3">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AY3">
         <v>100</v>
@@ -1427,7 +1427,7 @@
         <v>30</v>
       </c>
       <c r="BA3">
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="BB3">
         <v>100</v>
@@ -1436,7 +1436,7 @@
         <v>30</v>
       </c>
       <c r="BD3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BE3">
         <v>100</v>
@@ -1445,7 +1445,7 @@
         <v>30</v>
       </c>
       <c r="BG3">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BH3">
         <v>100</v>
@@ -1454,43 +1454,43 @@
         <v>30</v>
       </c>
       <c r="BJ3">
+        <v>74</v>
+      </c>
+      <c r="BK3">
+        <v>100</v>
+      </c>
+      <c r="BL3">
+        <v>30</v>
+      </c>
+      <c r="BM3">
+        <v>49</v>
+      </c>
+      <c r="BN3">
+        <v>100</v>
+      </c>
+      <c r="BO3">
+        <v>30</v>
+      </c>
+      <c r="BP3">
+        <v>87.2</v>
+      </c>
+      <c r="BQ3">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="BR3">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="BS3">
+        <v>85.2</v>
+      </c>
+      <c r="BT3">
         <v>81</v>
       </c>
-      <c r="BK3">
-        <v>100</v>
-      </c>
-      <c r="BL3">
-        <v>30</v>
-      </c>
-      <c r="BM3">
-        <v>90</v>
-      </c>
-      <c r="BN3">
-        <v>100</v>
-      </c>
-      <c r="BO3">
-        <v>30</v>
-      </c>
-      <c r="BP3">
-        <v>58.4</v>
-      </c>
-      <c r="BQ3">
-        <v>66.2</v>
-      </c>
-      <c r="BR3">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="BS3">
-        <v>84</v>
-      </c>
-      <c r="BT3">
-        <v>80</v>
-      </c>
       <c r="BU3">
-        <v>82</v>
+        <v>73.2</v>
       </c>
       <c r="BV3">
-        <v>90</v>
+        <v>52.6</v>
       </c>
       <c r="BW3">
         <v>100</v>
@@ -1535,7 +1535,7 @@
         <v>108</v>
       </c>
       <c r="CK3">
-        <v>541</v>
+        <v>545.2</v>
       </c>
       <c r="CL3" t="s">
         <v>108</v>
@@ -1544,10 +1544,10 @@
         <v>700</v>
       </c>
       <c r="CN3">
-        <v>77.28571428571429</v>
+        <v>77.88571428571429</v>
       </c>
       <c r="CO3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -1573,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>25</v>
@@ -1591,71 +1591,71 @@
         <v>7</v>
       </c>
       <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>6.5</v>
+      </c>
+      <c r="R4">
+        <v>25</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>7</v>
+      </c>
+      <c r="X4">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>25</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <v>6</v>
+      </c>
+      <c r="AD4">
+        <v>25</v>
+      </c>
+      <c r="AE4">
+        <v>7</v>
+      </c>
+      <c r="AF4">
+        <v>4</v>
+      </c>
+      <c r="AG4">
+        <v>25</v>
+      </c>
+      <c r="AH4">
+        <v>7</v>
+      </c>
+      <c r="AI4">
         <v>3</v>
       </c>
-      <c r="O4">
-        <v>25</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>3.5</v>
-      </c>
-      <c r="R4">
-        <v>25</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <v>8</v>
-      </c>
-      <c r="U4">
-        <v>25</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>8</v>
-      </c>
-      <c r="X4">
-        <v>25</v>
-      </c>
-      <c r="Y4">
-        <v>7</v>
-      </c>
-      <c r="Z4">
-        <v>10</v>
-      </c>
-      <c r="AA4">
-        <v>25</v>
-      </c>
-      <c r="AB4">
-        <v>7</v>
-      </c>
-      <c r="AC4">
-        <v>6.5</v>
-      </c>
-      <c r="AD4">
-        <v>25</v>
-      </c>
-      <c r="AE4">
-        <v>7</v>
-      </c>
-      <c r="AF4">
-        <v>7</v>
-      </c>
-      <c r="AG4">
-        <v>25</v>
-      </c>
-      <c r="AH4">
-        <v>7</v>
-      </c>
-      <c r="AI4">
-        <v>2</v>
-      </c>
       <c r="AJ4">
         <v>25</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM4">
         <v>25</v>
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="AO4">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="AP4">
         <v>25</v>
@@ -1681,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="AR4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AS4">
         <v>25</v>
@@ -1690,7 +1690,7 @@
         <v>7</v>
       </c>
       <c r="AU4">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="AV4">
         <v>100</v>
@@ -1699,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="AX4">
-        <v>23.5</v>
+        <v>36</v>
       </c>
       <c r="AY4">
         <v>100</v>
@@ -1708,7 +1708,7 @@
         <v>30</v>
       </c>
       <c r="BA4">
-        <v>30</v>
+        <v>25.5</v>
       </c>
       <c r="BB4">
         <v>100</v>
@@ -1717,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="BD4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BE4">
         <v>100</v>
@@ -1726,7 +1726,7 @@
         <v>30</v>
       </c>
       <c r="BG4">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="BH4">
         <v>100</v>
@@ -1735,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="BJ4">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="BK4">
         <v>100</v>
@@ -1744,7 +1744,7 @@
         <v>30</v>
       </c>
       <c r="BM4">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="BN4">
         <v>100</v>
@@ -1753,25 +1753,25 @@
         <v>30</v>
       </c>
       <c r="BP4">
-        <v>17.6</v>
+        <v>41</v>
       </c>
       <c r="BQ4">
-        <v>22.2</v>
+        <v>33.2</v>
       </c>
       <c r="BR4">
-        <v>30.8</v>
+        <v>26</v>
       </c>
       <c r="BS4">
-        <v>20.4</v>
+        <v>24.4</v>
       </c>
       <c r="BT4">
-        <v>16.6</v>
+        <v>37.4</v>
       </c>
       <c r="BU4">
-        <v>24.2</v>
+        <v>34.8</v>
       </c>
       <c r="BV4">
-        <v>45.2</v>
+        <v>30.4</v>
       </c>
       <c r="BW4">
         <v>100</v>
@@ -1795,37 +1795,37 @@
         <v>100</v>
       </c>
       <c r="CD4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF4" t="s">
         <v>109</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>108</v>
       </c>
       <c r="CG4" t="s">
         <v>109</v>
       </c>
       <c r="CH4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CI4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CJ4" t="s">
         <v>108</v>
       </c>
       <c r="CK4">
-        <v>177</v>
+        <v>227.2</v>
       </c>
       <c r="CL4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CM4">
         <v>700</v>
       </c>
       <c r="CN4">
-        <v>25.28571428571428</v>
+        <v>32.45714285714286</v>
       </c>
       <c r="CO4">
         <v>9</v>
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -1863,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>25</v>
@@ -1872,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O5">
         <v>25</v>
@@ -1881,7 +1881,7 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="R5">
         <v>25</v>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>25</v>
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="X5">
         <v>25</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="AA5">
         <v>25</v>
@@ -1917,7 +1917,7 @@
         <v>7</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD5">
         <v>25</v>
@@ -1926,7 +1926,7 @@
         <v>7</v>
       </c>
       <c r="AF5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG5">
         <v>25</v>
@@ -1935,7 +1935,7 @@
         <v>7</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="AJ5">
         <v>25</v>
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="AL5">
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM5">
         <v>25</v>
@@ -1962,7 +1962,7 @@
         <v>7</v>
       </c>
       <c r="AR5">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AS5">
         <v>25</v>
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV5">
         <v>100</v>
@@ -1980,7 +1980,7 @@
         <v>30</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AY5">
         <v>100</v>
@@ -1989,7 +1989,7 @@
         <v>30</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BB5">
         <v>100</v>
@@ -1998,7 +1998,7 @@
         <v>30</v>
       </c>
       <c r="BD5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BE5">
         <v>100</v>
@@ -2007,7 +2007,7 @@
         <v>30</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BH5">
         <v>100</v>
@@ -2016,7 +2016,7 @@
         <v>30</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BK5">
         <v>100</v>
@@ -2025,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BN5">
         <v>100</v>
@@ -2034,25 +2034,25 @@
         <v>30</v>
       </c>
       <c r="BP5">
-        <v>2.4</v>
+        <v>28</v>
       </c>
       <c r="BQ5">
-        <v>4.2</v>
+        <v>30.2</v>
       </c>
       <c r="BR5">
-        <v>8.4</v>
+        <v>24</v>
       </c>
       <c r="BS5">
-        <v>12.8</v>
+        <v>20.6</v>
       </c>
       <c r="BT5">
-        <v>2.6</v>
+        <v>34</v>
       </c>
       <c r="BU5">
-        <v>3.2</v>
+        <v>19.6</v>
       </c>
       <c r="BV5">
-        <v>8</v>
+        <v>20.8</v>
       </c>
       <c r="BW5">
         <v>100</v>
@@ -2079,7 +2079,7 @@
         <v>109</v>
       </c>
       <c r="CE5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CF5" t="s">
         <v>109</v>
@@ -2088,7 +2088,7 @@
         <v>109</v>
       </c>
       <c r="CH5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CI5" t="s">
         <v>109</v>
@@ -2097,7 +2097,7 @@
         <v>109</v>
       </c>
       <c r="CK5">
-        <v>41.6</v>
+        <v>177.2</v>
       </c>
       <c r="CL5" t="s">
         <v>109</v>
@@ -2106,10 +2106,10 @@
         <v>700</v>
       </c>
       <c r="CN5">
-        <v>5.942857142857143</v>
+        <v>25.31428571428572</v>
       </c>
       <c r="CO5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -2135,7 +2135,7 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I6">
         <v>25</v>
@@ -2144,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="L6">
         <v>25</v>
@@ -2153,26 +2153,26 @@
         <v>7</v>
       </c>
       <c r="N6">
+        <v>11.5</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>6.5</v>
+      </c>
+      <c r="R6">
+        <v>25</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
         <v>9</v>
       </c>
-      <c r="O6">
-        <v>25</v>
-      </c>
-      <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>18</v>
-      </c>
-      <c r="R6">
-        <v>25</v>
-      </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
-      <c r="T6">
-        <v>14.5</v>
-      </c>
       <c r="U6">
         <v>25</v>
       </c>
@@ -2180,26 +2180,26 @@
         <v>7</v>
       </c>
       <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>25</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <v>25</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+      <c r="AC6">
         <v>13</v>
       </c>
-      <c r="X6">
-        <v>25</v>
-      </c>
-      <c r="Y6">
-        <v>7</v>
-      </c>
-      <c r="Z6">
-        <v>4.5</v>
-      </c>
-      <c r="AA6">
-        <v>25</v>
-      </c>
-      <c r="AB6">
-        <v>7</v>
-      </c>
-      <c r="AC6">
-        <v>11</v>
-      </c>
       <c r="AD6">
         <v>25</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="AF6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AG6">
         <v>25</v>
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="AI6">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="AJ6">
         <v>25</v>
@@ -2225,7 +2225,7 @@
         <v>7</v>
       </c>
       <c r="AL6">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="AM6">
         <v>25</v>
@@ -2234,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="AO6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AP6">
         <v>25</v>
@@ -2243,7 +2243,7 @@
         <v>7</v>
       </c>
       <c r="AR6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AS6">
         <v>25</v>
@@ -2252,7 +2252,7 @@
         <v>7</v>
       </c>
       <c r="AU6">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="AV6">
         <v>100</v>
@@ -2261,7 +2261,7 @@
         <v>30</v>
       </c>
       <c r="AX6">
-        <v>38.5</v>
+        <v>51</v>
       </c>
       <c r="AY6">
         <v>100</v>
@@ -2270,7 +2270,7 @@
         <v>30</v>
       </c>
       <c r="BA6">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="BB6">
         <v>100</v>
@@ -2279,7 +2279,7 @@
         <v>30</v>
       </c>
       <c r="BD6">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="BE6">
         <v>100</v>
@@ -2288,7 +2288,7 @@
         <v>30</v>
       </c>
       <c r="BG6">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="BH6">
         <v>100</v>
@@ -2297,7 +2297,7 @@
         <v>30</v>
       </c>
       <c r="BJ6">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BK6">
         <v>100</v>
@@ -2306,7 +2306,7 @@
         <v>30</v>
       </c>
       <c r="BM6">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="BN6">
         <v>100</v>
@@ -2315,25 +2315,25 @@
         <v>30</v>
       </c>
       <c r="BP6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="BQ6">
-        <v>39.2</v>
+        <v>50.2</v>
       </c>
       <c r="BR6">
-        <v>48.2</v>
+        <v>36.2</v>
       </c>
       <c r="BS6">
-        <v>52.4</v>
+        <v>30.8</v>
       </c>
       <c r="BT6">
-        <v>49</v>
+        <v>34.2</v>
       </c>
       <c r="BU6">
-        <v>45.8</v>
+        <v>48.4</v>
       </c>
       <c r="BV6">
-        <v>46</v>
+        <v>21.2</v>
       </c>
       <c r="BW6">
         <v>100</v>
@@ -2357,28 +2357,28 @@
         <v>100</v>
       </c>
       <c r="CD6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>109</v>
       </c>
-      <c r="CE6" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>108</v>
-      </c>
       <c r="CK6">
-        <v>299.6</v>
+        <v>267.0000000000001</v>
       </c>
       <c r="CL6" t="s">
         <v>108</v>
@@ -2387,7 +2387,7 @@
         <v>700</v>
       </c>
       <c r="CN6">
-        <v>42.8</v>
+        <v>38.14285714285715</v>
       </c>
       <c r="CO6">
         <v>7</v>
@@ -2416,7 +2416,7 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="I7">
         <v>25</v>
@@ -2425,7 +2425,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <v>25</v>
@@ -2434,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O7">
         <v>25</v>
@@ -2443,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="R7">
         <v>25</v>
@@ -2452,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="T7">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="U7">
         <v>25</v>
@@ -2461,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="W7">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>25</v>
@@ -2470,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="Z7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AA7">
         <v>25</v>
@@ -2479,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="AC7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AD7">
         <v>25</v>
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="AF7">
-        <v>13.5</v>
+        <v>5</v>
       </c>
       <c r="AG7">
         <v>25</v>
@@ -2497,17 +2497,17 @@
         <v>7</v>
       </c>
       <c r="AI7">
+        <v>6.5</v>
+      </c>
+      <c r="AJ7">
+        <v>25</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
         <v>10.5</v>
       </c>
-      <c r="AJ7">
-        <v>25</v>
-      </c>
-      <c r="AK7">
-        <v>7</v>
-      </c>
-      <c r="AL7">
-        <v>15.5</v>
-      </c>
       <c r="AM7">
         <v>25</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>7</v>
       </c>
       <c r="AO7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP7">
         <v>25</v>
@@ -2524,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="AR7">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="AS7">
         <v>25</v>
@@ -2533,7 +2533,7 @@
         <v>7</v>
       </c>
       <c r="AU7">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="AV7">
         <v>100</v>
@@ -2542,7 +2542,7 @@
         <v>30</v>
       </c>
       <c r="AX7">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="AY7">
         <v>100</v>
@@ -2551,7 +2551,7 @@
         <v>30</v>
       </c>
       <c r="BA7">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="BB7">
         <v>100</v>
@@ -2560,7 +2560,7 @@
         <v>30</v>
       </c>
       <c r="BD7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BE7">
         <v>100</v>
@@ -2569,7 +2569,7 @@
         <v>30</v>
       </c>
       <c r="BG7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="BH7">
         <v>100</v>
@@ -2578,43 +2578,43 @@
         <v>30</v>
       </c>
       <c r="BJ7">
+        <v>56</v>
+      </c>
+      <c r="BK7">
+        <v>100</v>
+      </c>
+      <c r="BL7">
+        <v>30</v>
+      </c>
+      <c r="BM7">
+        <v>21</v>
+      </c>
+      <c r="BN7">
+        <v>100</v>
+      </c>
+      <c r="BO7">
+        <v>30</v>
+      </c>
+      <c r="BP7">
+        <v>41.2</v>
+      </c>
+      <c r="BQ7">
         <v>63</v>
       </c>
-      <c r="BK7">
-        <v>100</v>
-      </c>
-      <c r="BL7">
-        <v>30</v>
-      </c>
-      <c r="BM7">
-        <v>67</v>
-      </c>
-      <c r="BN7">
-        <v>100</v>
-      </c>
-      <c r="BO7">
-        <v>30</v>
-      </c>
-      <c r="BP7">
-        <v>16.8</v>
-      </c>
-      <c r="BQ7">
-        <v>39</v>
-      </c>
       <c r="BR7">
-        <v>73.59999999999999</v>
+        <v>42</v>
       </c>
       <c r="BS7">
-        <v>46.6</v>
+        <v>43.8</v>
       </c>
       <c r="BT7">
-        <v>45</v>
+        <v>46.8</v>
       </c>
       <c r="BU7">
-        <v>63</v>
+        <v>53.6</v>
       </c>
       <c r="BV7">
-        <v>66</v>
+        <v>18.4</v>
       </c>
       <c r="BW7">
         <v>100</v>
@@ -2638,28 +2638,28 @@
         <v>100</v>
       </c>
       <c r="CD7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ7" t="s">
         <v>109</v>
       </c>
-      <c r="CE7" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>108</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>108</v>
-      </c>
       <c r="CK7">
-        <v>350</v>
+        <v>308.8</v>
       </c>
       <c r="CL7" t="s">
         <v>108</v>
@@ -2668,7 +2668,7 @@
         <v>700</v>
       </c>
       <c r="CN7">
-        <v>50</v>
+        <v>44.11428571428571</v>
       </c>
       <c r="CO7">
         <v>6</v>
@@ -2688,116 +2688,116 @@
         <v>8</v>
       </c>
       <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>8.5</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>1.5</v>
+      </c>
+      <c r="U8">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>25</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>25</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
+      <c r="X8">
+        <v>25</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>25</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <v>25</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AF8">
         <v>4</v>
       </c>
-      <c r="R8">
-        <v>25</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>5.5</v>
-      </c>
-      <c r="U8">
-        <v>25</v>
-      </c>
-      <c r="V8">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
-      <c r="X8">
-        <v>25</v>
-      </c>
-      <c r="Y8">
-        <v>7</v>
-      </c>
-      <c r="Z8">
+      <c r="AG8">
+        <v>25</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AI8">
+        <v>2.5</v>
+      </c>
+      <c r="AJ8">
+        <v>25</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+      <c r="AL8">
+        <v>6.5</v>
+      </c>
+      <c r="AM8">
+        <v>25</v>
+      </c>
+      <c r="AN8">
+        <v>7</v>
+      </c>
+      <c r="AO8">
         <v>4</v>
       </c>
-      <c r="AA8">
-        <v>25</v>
-      </c>
-      <c r="AB8">
-        <v>7</v>
-      </c>
-      <c r="AC8">
-        <v>13</v>
-      </c>
-      <c r="AD8">
-        <v>25</v>
-      </c>
-      <c r="AE8">
-        <v>7</v>
-      </c>
-      <c r="AF8">
-        <v>4.5</v>
-      </c>
-      <c r="AG8">
-        <v>25</v>
-      </c>
-      <c r="AH8">
-        <v>7</v>
-      </c>
-      <c r="AI8">
-        <v>2</v>
-      </c>
-      <c r="AJ8">
-        <v>25</v>
-      </c>
-      <c r="AK8">
-        <v>7</v>
-      </c>
-      <c r="AL8">
-        <v>1.5</v>
-      </c>
-      <c r="AM8">
-        <v>25</v>
-      </c>
-      <c r="AN8">
-        <v>7</v>
-      </c>
-      <c r="AO8">
-        <v>7</v>
-      </c>
       <c r="AP8">
         <v>25</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="AR8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AS8">
         <v>25</v>
@@ -2814,62 +2814,62 @@
         <v>7</v>
       </c>
       <c r="AU8">
+        <v>22</v>
+      </c>
+      <c r="AV8">
+        <v>100</v>
+      </c>
+      <c r="AW8">
+        <v>30</v>
+      </c>
+      <c r="AX8">
+        <v>39</v>
+      </c>
+      <c r="AY8">
+        <v>100</v>
+      </c>
+      <c r="AZ8">
+        <v>30</v>
+      </c>
+      <c r="BA8">
+        <v>23</v>
+      </c>
+      <c r="BB8">
+        <v>100</v>
+      </c>
+      <c r="BC8">
+        <v>30</v>
+      </c>
+      <c r="BD8">
+        <v>25</v>
+      </c>
+      <c r="BE8">
+        <v>100</v>
+      </c>
+      <c r="BF8">
+        <v>30</v>
+      </c>
+      <c r="BG8">
+        <v>37</v>
+      </c>
+      <c r="BH8">
+        <v>100</v>
+      </c>
+      <c r="BI8">
+        <v>30</v>
+      </c>
+      <c r="BJ8">
+        <v>18</v>
+      </c>
+      <c r="BK8">
+        <v>100</v>
+      </c>
+      <c r="BL8">
+        <v>30</v>
+      </c>
+      <c r="BM8">
         <v>14</v>
       </c>
-      <c r="AV8">
-        <v>100</v>
-      </c>
-      <c r="AW8">
-        <v>30</v>
-      </c>
-      <c r="AX8">
-        <v>25</v>
-      </c>
-      <c r="AY8">
-        <v>100</v>
-      </c>
-      <c r="AZ8">
-        <v>30</v>
-      </c>
-      <c r="BA8">
-        <v>17</v>
-      </c>
-      <c r="BB8">
-        <v>100</v>
-      </c>
-      <c r="BC8">
-        <v>30</v>
-      </c>
-      <c r="BD8">
-        <v>10</v>
-      </c>
-      <c r="BE8">
-        <v>100</v>
-      </c>
-      <c r="BF8">
-        <v>30</v>
-      </c>
-      <c r="BG8">
-        <v>21</v>
-      </c>
-      <c r="BH8">
-        <v>100</v>
-      </c>
-      <c r="BI8">
-        <v>30</v>
-      </c>
-      <c r="BJ8">
-        <v>15</v>
-      </c>
-      <c r="BK8">
-        <v>100</v>
-      </c>
-      <c r="BL8">
-        <v>30</v>
-      </c>
-      <c r="BM8">
-        <v>45</v>
-      </c>
       <c r="BN8">
         <v>100</v>
       </c>
@@ -2877,25 +2877,25 @@
         <v>30</v>
       </c>
       <c r="BP8">
-        <v>12.8</v>
+        <v>20</v>
       </c>
       <c r="BQ8">
-        <v>26.4</v>
+        <v>37.2</v>
       </c>
       <c r="BR8">
-        <v>19</v>
+        <v>25.2</v>
       </c>
       <c r="BS8">
-        <v>10</v>
+        <v>24.4</v>
       </c>
       <c r="BT8">
-        <v>19</v>
+        <v>35.8</v>
       </c>
       <c r="BU8">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="BV8">
-        <v>44</v>
+        <v>11.6</v>
       </c>
       <c r="BW8">
         <v>100</v>
@@ -2922,7 +2922,7 @@
         <v>109</v>
       </c>
       <c r="CE8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CF8" t="s">
         <v>109</v>
@@ -2931,16 +2931,16 @@
         <v>109</v>
       </c>
       <c r="CH8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CI8" t="s">
         <v>109</v>
       </c>
       <c r="CJ8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CK8">
-        <v>148.2</v>
+        <v>170.8</v>
       </c>
       <c r="CL8" t="s">
         <v>109</v>
@@ -2949,10 +2949,10 @@
         <v>700</v>
       </c>
       <c r="CN8">
-        <v>21.17142857142857</v>
+        <v>24.4</v>
       </c>
       <c r="CO8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2969,7 +2969,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="F9">
         <v>25</v>
@@ -2978,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I9">
         <v>25</v>
@@ -2987,7 +2987,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <v>25</v>
@@ -2996,7 +2996,7 @@
         <v>7</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="O9">
         <v>25</v>
@@ -3005,7 +3005,7 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="R9">
         <v>25</v>
@@ -3014,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="U9">
         <v>25</v>
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA9">
         <v>25</v>
@@ -3041,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="AC9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AD9">
         <v>25</v>
@@ -3050,7 +3050,7 @@
         <v>7</v>
       </c>
       <c r="AF9">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG9">
         <v>25</v>
@@ -3059,7 +3059,7 @@
         <v>7</v>
       </c>
       <c r="AI9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AJ9">
         <v>25</v>
@@ -3068,7 +3068,7 @@
         <v>7</v>
       </c>
       <c r="AL9">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM9">
         <v>25</v>
@@ -3077,7 +3077,7 @@
         <v>7</v>
       </c>
       <c r="AO9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP9">
         <v>25</v>
@@ -3086,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="AR9">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AS9">
         <v>25</v>
@@ -3104,7 +3104,7 @@
         <v>30</v>
       </c>
       <c r="AX9">
-        <v>37.5</v>
+        <v>73</v>
       </c>
       <c r="AY9">
         <v>100</v>
@@ -3113,7 +3113,7 @@
         <v>30</v>
       </c>
       <c r="BA9">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="BB9">
         <v>100</v>
@@ -3122,7 +3122,7 @@
         <v>30</v>
       </c>
       <c r="BD9">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="BE9">
         <v>100</v>
@@ -3131,7 +3131,7 @@
         <v>30</v>
       </c>
       <c r="BG9">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="BH9">
         <v>100</v>
@@ -3140,7 +3140,7 @@
         <v>30</v>
       </c>
       <c r="BJ9">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="BK9">
         <v>100</v>
@@ -3149,34 +3149,34 @@
         <v>30</v>
       </c>
       <c r="BM9">
+        <v>47</v>
+      </c>
+      <c r="BN9">
+        <v>100</v>
+      </c>
+      <c r="BO9">
+        <v>30</v>
+      </c>
+      <c r="BP9">
         <v>61</v>
       </c>
-      <c r="BN9">
-        <v>100</v>
-      </c>
-      <c r="BO9">
-        <v>30</v>
-      </c>
-      <c r="BP9">
-        <v>63</v>
-      </c>
       <c r="BQ9">
-        <v>39.6</v>
+        <v>75.2</v>
       </c>
       <c r="BR9">
-        <v>77.40000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="BS9">
-        <v>57.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="BT9">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="BU9">
-        <v>69.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="BV9">
-        <v>60.2</v>
+        <v>48.6</v>
       </c>
       <c r="BW9">
         <v>100</v>
@@ -3221,7 +3221,7 @@
         <v>108</v>
       </c>
       <c r="CK9">
-        <v>414.9999999999999</v>
+        <v>471.2</v>
       </c>
       <c r="CL9" t="s">
         <v>108</v>
@@ -3230,10 +3230,10 @@
         <v>700</v>
       </c>
       <c r="CN9">
-        <v>59.28571428571428</v>
+        <v>67.31428571428572</v>
       </c>
       <c r="CO9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -3250,61 +3250,61 @@
         <v>11</v>
       </c>
       <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>2.5</v>
+      </c>
+      <c r="O10">
+        <v>25</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>1.5</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
         <v>1</v>
-      </c>
-      <c r="F10">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>25</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>5.5</v>
-      </c>
-      <c r="L10">
-        <v>25</v>
-      </c>
-      <c r="M10">
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>25</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>25</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>6</v>
-      </c>
-      <c r="U10">
-        <v>25</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
       </c>
       <c r="X10">
         <v>25</v>
@@ -3322,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="AC10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD10">
         <v>25</v>
@@ -3331,7 +3331,7 @@
         <v>7</v>
       </c>
       <c r="AF10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG10">
         <v>25</v>
@@ -3340,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AJ10">
         <v>25</v>
@@ -3358,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="AO10">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AP10">
         <v>25</v>
@@ -3367,7 +3367,7 @@
         <v>7</v>
       </c>
       <c r="AR10">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="AS10">
         <v>25</v>
@@ -3376,7 +3376,7 @@
         <v>7</v>
       </c>
       <c r="AU10">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AV10">
         <v>100</v>
@@ -3385,7 +3385,7 @@
         <v>30</v>
       </c>
       <c r="AX10">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AY10">
         <v>100</v>
@@ -3394,70 +3394,70 @@
         <v>30</v>
       </c>
       <c r="BA10">
+        <v>9</v>
+      </c>
+      <c r="BB10">
+        <v>100</v>
+      </c>
+      <c r="BC10">
+        <v>30</v>
+      </c>
+      <c r="BD10">
+        <v>14</v>
+      </c>
+      <c r="BE10">
+        <v>100</v>
+      </c>
+      <c r="BF10">
+        <v>30</v>
+      </c>
+      <c r="BG10">
+        <v>17</v>
+      </c>
+      <c r="BH10">
+        <v>100</v>
+      </c>
+      <c r="BI10">
+        <v>30</v>
+      </c>
+      <c r="BJ10">
+        <v>8</v>
+      </c>
+      <c r="BK10">
+        <v>100</v>
+      </c>
+      <c r="BL10">
+        <v>30</v>
+      </c>
+      <c r="BM10">
         <v>16</v>
       </c>
-      <c r="BB10">
-        <v>100</v>
-      </c>
-      <c r="BC10">
-        <v>30</v>
-      </c>
-      <c r="BD10">
-        <v>7</v>
-      </c>
-      <c r="BE10">
-        <v>100</v>
-      </c>
-      <c r="BF10">
-        <v>30</v>
-      </c>
-      <c r="BG10">
+      <c r="BN10">
+        <v>100</v>
+      </c>
+      <c r="BO10">
+        <v>30</v>
+      </c>
+      <c r="BP10">
+        <v>15.4</v>
+      </c>
+      <c r="BQ10">
+        <v>22.8</v>
+      </c>
+      <c r="BR10">
+        <v>8</v>
+      </c>
+      <c r="BS10">
+        <v>12.4</v>
+      </c>
+      <c r="BT10">
         <v>15</v>
       </c>
-      <c r="BH10">
-        <v>100</v>
-      </c>
-      <c r="BI10">
-        <v>30</v>
-      </c>
-      <c r="BJ10">
-        <v>9</v>
-      </c>
-      <c r="BK10">
-        <v>100</v>
-      </c>
-      <c r="BL10">
-        <v>30</v>
-      </c>
-      <c r="BM10">
-        <v>12</v>
-      </c>
-      <c r="BN10">
-        <v>100</v>
-      </c>
-      <c r="BO10">
-        <v>30</v>
-      </c>
-      <c r="BP10">
-        <v>2.8</v>
-      </c>
-      <c r="BQ10">
-        <v>18.8</v>
-      </c>
-      <c r="BR10">
-        <v>16.6</v>
-      </c>
-      <c r="BS10">
-        <v>7.6</v>
-      </c>
-      <c r="BT10">
-        <v>14</v>
-      </c>
       <c r="BU10">
-        <v>11.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BV10">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="BW10">
         <v>100</v>
@@ -3502,7 +3502,7 @@
         <v>109</v>
       </c>
       <c r="CK10">
-        <v>83.40000000000001</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="CL10" t="s">
         <v>109</v>
@@ -3511,10 +3511,10 @@
         <v>700</v>
       </c>
       <c r="CN10">
-        <v>11.91428571428571</v>
+        <v>13.77142857142857</v>
       </c>
       <c r="CO10">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -3531,7 +3531,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>17.5</v>
+        <v>21.5</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -3540,7 +3540,7 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11">
         <v>25</v>
@@ -3549,7 +3549,7 @@
         <v>7</v>
       </c>
       <c r="K11">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="L11">
         <v>25</v>
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="N11">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="O11">
         <v>25</v>
@@ -3567,7 +3567,7 @@
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="R11">
         <v>25</v>
@@ -3576,44 +3576,44 @@
         <v>7</v>
       </c>
       <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+      <c r="AA11">
+        <v>25</v>
+      </c>
+      <c r="AB11">
+        <v>7</v>
+      </c>
+      <c r="AC11">
+        <v>17</v>
+      </c>
+      <c r="AD11">
+        <v>25</v>
+      </c>
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AF11">
         <v>18</v>
       </c>
-      <c r="U11">
-        <v>25</v>
-      </c>
-      <c r="V11">
-        <v>7</v>
-      </c>
-      <c r="W11">
-        <v>24</v>
-      </c>
-      <c r="X11">
-        <v>25</v>
-      </c>
-      <c r="Y11">
-        <v>7</v>
-      </c>
-      <c r="Z11">
-        <v>15</v>
-      </c>
-      <c r="AA11">
-        <v>25</v>
-      </c>
-      <c r="AB11">
-        <v>7</v>
-      </c>
-      <c r="AC11">
-        <v>19</v>
-      </c>
-      <c r="AD11">
-        <v>25</v>
-      </c>
-      <c r="AE11">
-        <v>7</v>
-      </c>
-      <c r="AF11">
-        <v>13.5</v>
-      </c>
       <c r="AG11">
         <v>25</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="AI11">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AJ11">
         <v>25</v>
@@ -3630,7 +3630,7 @@
         <v>7</v>
       </c>
       <c r="AL11">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AM11">
         <v>25</v>
@@ -3639,7 +3639,7 @@
         <v>7</v>
       </c>
       <c r="AO11">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="AP11">
         <v>25</v>
@@ -3648,7 +3648,7 @@
         <v>7</v>
       </c>
       <c r="AR11">
-        <v>22</v>
+        <v>8.5</v>
       </c>
       <c r="AS11">
         <v>25</v>
@@ -3657,7 +3657,7 @@
         <v>7</v>
       </c>
       <c r="AU11">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="AV11">
         <v>100</v>
@@ -3666,7 +3666,7 @@
         <v>30</v>
       </c>
       <c r="AX11">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AY11">
         <v>100</v>
@@ -3675,7 +3675,7 @@
         <v>30</v>
       </c>
       <c r="BA11">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="BB11">
         <v>100</v>
@@ -3684,7 +3684,7 @@
         <v>30</v>
       </c>
       <c r="BD11">
-        <v>80.5</v>
+        <v>81</v>
       </c>
       <c r="BE11">
         <v>100</v>
@@ -3693,7 +3693,7 @@
         <v>30</v>
       </c>
       <c r="BG11">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="BH11">
         <v>100</v>
@@ -3702,7 +3702,7 @@
         <v>30</v>
       </c>
       <c r="BJ11">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="BK11">
         <v>100</v>
@@ -3711,7 +3711,7 @@
         <v>30</v>
       </c>
       <c r="BM11">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="BN11">
         <v>100</v>
@@ -3720,25 +3720,25 @@
         <v>30</v>
       </c>
       <c r="BP11">
-        <v>45</v>
+        <v>74.2</v>
       </c>
       <c r="BQ11">
-        <v>61.2</v>
+        <v>80</v>
       </c>
       <c r="BR11">
-        <v>62</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="BS11">
-        <v>75.40000000000001</v>
+        <v>81</v>
       </c>
       <c r="BT11">
-        <v>75.40000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="BU11">
-        <v>78.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="BV11">
-        <v>87.2</v>
+        <v>34.6</v>
       </c>
       <c r="BW11">
         <v>100</v>
@@ -3783,7 +3783,7 @@
         <v>108</v>
       </c>
       <c r="CK11">
-        <v>484.4</v>
+        <v>487.2</v>
       </c>
       <c r="CL11" t="s">
         <v>108</v>
@@ -3792,7 +3792,7 @@
         <v>700</v>
       </c>
       <c r="CN11">
-        <v>69.19999999999999</v>
+        <v>69.60000000000001</v>
       </c>
       <c r="CO11">
         <v>3</v>
@@ -3812,80 +3812,80 @@
         <v>14</v>
       </c>
       <c r="E12">
+        <v>6.5</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8.5</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>13.5</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>12.5</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>6.5</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
         <v>5</v>
       </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>25</v>
-      </c>
-      <c r="J12">
-        <v>7</v>
-      </c>
-      <c r="K12">
-        <v>21.5</v>
-      </c>
-      <c r="L12">
-        <v>25</v>
-      </c>
-      <c r="M12">
-        <v>7</v>
-      </c>
-      <c r="N12">
+      <c r="X12">
+        <v>25</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>7.5</v>
+      </c>
+      <c r="AA12">
+        <v>25</v>
+      </c>
+      <c r="AB12">
+        <v>7</v>
+      </c>
+      <c r="AC12">
         <v>8</v>
       </c>
-      <c r="O12">
-        <v>25</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
-        <v>9.5</v>
-      </c>
-      <c r="R12">
-        <v>25</v>
-      </c>
-      <c r="S12">
-        <v>7</v>
-      </c>
-      <c r="T12">
-        <v>4.5</v>
-      </c>
-      <c r="U12">
-        <v>25</v>
-      </c>
-      <c r="V12">
-        <v>7</v>
-      </c>
-      <c r="W12">
-        <v>18</v>
-      </c>
-      <c r="X12">
-        <v>25</v>
-      </c>
-      <c r="Y12">
-        <v>7</v>
-      </c>
-      <c r="Z12">
-        <v>6.5</v>
-      </c>
-      <c r="AA12">
-        <v>25</v>
-      </c>
-      <c r="AB12">
-        <v>7</v>
-      </c>
-      <c r="AC12">
-        <v>11</v>
-      </c>
       <c r="AD12">
         <v>25</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>7</v>
       </c>
       <c r="AF12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AG12">
         <v>25</v>
@@ -3902,7 +3902,7 @@
         <v>7</v>
       </c>
       <c r="AI12">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AJ12">
         <v>25</v>
@@ -3911,7 +3911,7 @@
         <v>7</v>
       </c>
       <c r="AL12">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="AM12">
         <v>25</v>
@@ -3920,7 +3920,7 @@
         <v>7</v>
       </c>
       <c r="AO12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP12">
         <v>25</v>
@@ -3929,7 +3929,7 @@
         <v>7</v>
       </c>
       <c r="AR12">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AS12">
         <v>25</v>
@@ -3938,7 +3938,7 @@
         <v>7</v>
       </c>
       <c r="AU12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AV12">
         <v>100</v>
@@ -3947,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="AX12">
-        <v>32.5</v>
+        <v>43</v>
       </c>
       <c r="AY12">
         <v>100</v>
@@ -3956,7 +3956,7 @@
         <v>30</v>
       </c>
       <c r="BA12">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="BB12">
         <v>100</v>
@@ -3974,7 +3974,7 @@
         <v>30</v>
       </c>
       <c r="BG12">
-        <v>30.5</v>
+        <v>47</v>
       </c>
       <c r="BH12">
         <v>100</v>
@@ -3983,7 +3983,7 @@
         <v>30</v>
       </c>
       <c r="BJ12">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="BK12">
         <v>100</v>
@@ -3992,7 +3992,7 @@
         <v>30</v>
       </c>
       <c r="BM12">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="BN12">
         <v>100</v>
@@ -4001,25 +4001,25 @@
         <v>30</v>
       </c>
       <c r="BP12">
-        <v>19</v>
+        <v>27.2</v>
       </c>
       <c r="BQ12">
-        <v>30.8</v>
+        <v>41</v>
       </c>
       <c r="BR12">
-        <v>38.2</v>
+        <v>33</v>
       </c>
       <c r="BS12">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="BT12">
-        <v>32</v>
+        <v>47.2</v>
       </c>
       <c r="BU12">
-        <v>41.4</v>
+        <v>33</v>
       </c>
       <c r="BV12">
-        <v>63.2</v>
+        <v>21.6</v>
       </c>
       <c r="BW12">
         <v>100</v>
@@ -4061,10 +4061,10 @@
         <v>108</v>
       </c>
       <c r="CJ12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CK12">
-        <v>258.6</v>
+        <v>237.4</v>
       </c>
       <c r="CL12" t="s">
         <v>108</v>
@@ -4073,7 +4073,7 @@
         <v>700</v>
       </c>
       <c r="CN12">
-        <v>36.94285714285714</v>
+        <v>33.91428571428571</v>
       </c>
       <c r="CO12">
         <v>8</v>
@@ -4093,7 +4093,7 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -4102,7 +4102,7 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="I13">
         <v>25</v>
@@ -4111,7 +4111,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L13">
         <v>25</v>
@@ -4129,53 +4129,53 @@
         <v>7</v>
       </c>
       <c r="Q13">
+        <v>17</v>
+      </c>
+      <c r="R13">
+        <v>25</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>15.5</v>
+      </c>
+      <c r="U13">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>24</v>
+      </c>
+      <c r="X13">
+        <v>25</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+      <c r="Z13">
         <v>21.5</v>
       </c>
-      <c r="R13">
-        <v>25</v>
-      </c>
-      <c r="S13">
-        <v>7</v>
-      </c>
-      <c r="T13">
+      <c r="AA13">
+        <v>25</v>
+      </c>
+      <c r="AB13">
+        <v>7</v>
+      </c>
+      <c r="AC13">
         <v>20</v>
       </c>
-      <c r="U13">
-        <v>25</v>
-      </c>
-      <c r="V13">
-        <v>7</v>
-      </c>
-      <c r="W13">
-        <v>22.5</v>
-      </c>
-      <c r="X13">
-        <v>25</v>
-      </c>
-      <c r="Y13">
-        <v>7</v>
-      </c>
-      <c r="Z13">
+      <c r="AD13">
+        <v>25</v>
+      </c>
+      <c r="AE13">
+        <v>7</v>
+      </c>
+      <c r="AF13">
         <v>21</v>
       </c>
-      <c r="AA13">
-        <v>25</v>
-      </c>
-      <c r="AB13">
-        <v>7</v>
-      </c>
-      <c r="AC13">
-        <v>14</v>
-      </c>
-      <c r="AD13">
-        <v>25</v>
-      </c>
-      <c r="AE13">
-        <v>7</v>
-      </c>
-      <c r="AF13">
-        <v>11</v>
-      </c>
       <c r="AG13">
         <v>25</v>
       </c>
@@ -4183,26 +4183,26 @@
         <v>7</v>
       </c>
       <c r="AI13">
+        <v>22</v>
+      </c>
+      <c r="AJ13">
+        <v>25</v>
+      </c>
+      <c r="AK13">
+        <v>7</v>
+      </c>
+      <c r="AL13">
+        <v>19.5</v>
+      </c>
+      <c r="AM13">
+        <v>25</v>
+      </c>
+      <c r="AN13">
+        <v>7</v>
+      </c>
+      <c r="AO13">
         <v>20</v>
       </c>
-      <c r="AJ13">
-        <v>25</v>
-      </c>
-      <c r="AK13">
-        <v>7</v>
-      </c>
-      <c r="AL13">
-        <v>23.5</v>
-      </c>
-      <c r="AM13">
-        <v>25</v>
-      </c>
-      <c r="AN13">
-        <v>7</v>
-      </c>
-      <c r="AO13">
-        <v>23</v>
-      </c>
       <c r="AP13">
         <v>25</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>7</v>
       </c>
       <c r="AR13">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AS13">
         <v>25</v>
@@ -4219,26 +4219,26 @@
         <v>7</v>
       </c>
       <c r="AU13">
+        <v>87</v>
+      </c>
+      <c r="AV13">
+        <v>100</v>
+      </c>
+      <c r="AW13">
+        <v>30</v>
+      </c>
+      <c r="AX13">
+        <v>85</v>
+      </c>
+      <c r="AY13">
+        <v>100</v>
+      </c>
+      <c r="AZ13">
+        <v>30</v>
+      </c>
+      <c r="BA13">
         <v>65</v>
       </c>
-      <c r="AV13">
-        <v>100</v>
-      </c>
-      <c r="AW13">
-        <v>30</v>
-      </c>
-      <c r="AX13">
-        <v>68</v>
-      </c>
-      <c r="AY13">
-        <v>100</v>
-      </c>
-      <c r="AZ13">
-        <v>30</v>
-      </c>
-      <c r="BA13">
-        <v>90</v>
-      </c>
       <c r="BB13">
         <v>100</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>30</v>
       </c>
       <c r="BD13">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BE13">
         <v>100</v>
@@ -4255,7 +4255,7 @@
         <v>30</v>
       </c>
       <c r="BG13">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="BH13">
         <v>100</v>
@@ -4264,7 +4264,7 @@
         <v>30</v>
       </c>
       <c r="BJ13">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="BK13">
         <v>100</v>
@@ -4273,7 +4273,7 @@
         <v>30</v>
       </c>
       <c r="BM13">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BN13">
         <v>100</v>
@@ -4282,25 +4282,25 @@
         <v>30</v>
       </c>
       <c r="BP13">
-        <v>68.8</v>
+        <v>87.8</v>
       </c>
       <c r="BQ13">
-        <v>68.40000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="BR13">
-        <v>84.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="BS13">
-        <v>84.8</v>
+        <v>84</v>
       </c>
       <c r="BT13">
-        <v>75.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="BU13">
-        <v>76.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="BV13">
-        <v>80.8</v>
+        <v>79</v>
       </c>
       <c r="BW13">
         <v>100</v>
@@ -4345,7 +4345,7 @@
         <v>108</v>
       </c>
       <c r="CK13">
-        <v>539.1999999999999</v>
+        <v>565</v>
       </c>
       <c r="CL13" t="s">
         <v>108</v>
@@ -4354,10 +4354,10 @@
         <v>700</v>
       </c>
       <c r="CN13">
-        <v>77.02857142857142</v>
+        <v>80.71428571428572</v>
       </c>
       <c r="CO13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:93">
@@ -4374,106 +4374,106 @@
         <v>16</v>
       </c>
       <c r="E14">
+        <v>7.5</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>10.5</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>2.5</v>
+      </c>
+      <c r="R14">
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>25</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>9</v>
+      </c>
+      <c r="AA14">
+        <v>25</v>
+      </c>
+      <c r="AB14">
+        <v>7</v>
+      </c>
+      <c r="AC14">
+        <v>14</v>
+      </c>
+      <c r="AD14">
+        <v>25</v>
+      </c>
+      <c r="AE14">
+        <v>7</v>
+      </c>
+      <c r="AF14">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>25</v>
+      </c>
+      <c r="AH14">
+        <v>7</v>
+      </c>
+      <c r="AI14">
+        <v>6</v>
+      </c>
+      <c r="AJ14">
+        <v>25</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14">
         <v>0</v>
-      </c>
-      <c r="F14">
-        <v>25</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>25</v>
-      </c>
-      <c r="J14">
-        <v>7</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>25</v>
-      </c>
-      <c r="M14">
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>25</v>
-      </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>25</v>
-      </c>
-      <c r="S14">
-        <v>7</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>25</v>
-      </c>
-      <c r="V14">
-        <v>7</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>25</v>
-      </c>
-      <c r="Y14">
-        <v>7</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>25</v>
-      </c>
-      <c r="AB14">
-        <v>7</v>
-      </c>
-      <c r="AC14">
-        <v>4</v>
-      </c>
-      <c r="AD14">
-        <v>25</v>
-      </c>
-      <c r="AE14">
-        <v>7</v>
-      </c>
-      <c r="AF14">
-        <v>2</v>
-      </c>
-      <c r="AG14">
-        <v>25</v>
-      </c>
-      <c r="AH14">
-        <v>7</v>
-      </c>
-      <c r="AI14">
-        <v>2</v>
-      </c>
-      <c r="AJ14">
-        <v>25</v>
-      </c>
-      <c r="AK14">
-        <v>7</v>
-      </c>
-      <c r="AL14">
-        <v>2.5</v>
       </c>
       <c r="AM14">
         <v>25</v>
@@ -4491,7 +4491,7 @@
         <v>7</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AS14">
         <v>25</v>
@@ -4500,7 +4500,7 @@
         <v>7</v>
       </c>
       <c r="AU14">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AV14">
         <v>100</v>
@@ -4509,7 +4509,7 @@
         <v>30</v>
       </c>
       <c r="AX14">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AY14">
         <v>100</v>
@@ -4518,7 +4518,7 @@
         <v>30</v>
       </c>
       <c r="BA14">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="BB14">
         <v>100</v>
@@ -4527,7 +4527,7 @@
         <v>30</v>
       </c>
       <c r="BD14">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="BE14">
         <v>100</v>
@@ -4536,7 +4536,7 @@
         <v>30</v>
       </c>
       <c r="BG14">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="BH14">
         <v>100</v>
@@ -4545,7 +4545,7 @@
         <v>30</v>
       </c>
       <c r="BJ14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BK14">
         <v>100</v>
@@ -4554,7 +4554,7 @@
         <v>30</v>
       </c>
       <c r="BM14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BN14">
         <v>100</v>
@@ -4563,25 +4563,25 @@
         <v>30</v>
       </c>
       <c r="BP14">
-        <v>8</v>
+        <v>35.4</v>
       </c>
       <c r="BQ14">
-        <v>27.2</v>
+        <v>50.8</v>
       </c>
       <c r="BR14">
+        <v>36</v>
+      </c>
+      <c r="BS14">
+        <v>45</v>
+      </c>
+      <c r="BT14">
+        <v>15.4</v>
+      </c>
+      <c r="BU14">
         <v>21.6</v>
       </c>
-      <c r="BS14">
-        <v>25.6</v>
-      </c>
-      <c r="BT14">
-        <v>25</v>
-      </c>
-      <c r="BU14">
-        <v>21.2</v>
-      </c>
       <c r="BV14">
-        <v>12</v>
+        <v>19.8</v>
       </c>
       <c r="BW14">
         <v>100</v>
@@ -4605,16 +4605,16 @@
         <v>100</v>
       </c>
       <c r="CD14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CE14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CF14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CG14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CH14" t="s">
         <v>109</v>
@@ -4626,19 +4626,19 @@
         <v>109</v>
       </c>
       <c r="CK14">
-        <v>140.6</v>
+        <v>224</v>
       </c>
       <c r="CL14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CM14">
         <v>700</v>
       </c>
       <c r="CN14">
-        <v>20.08571428571429</v>
+        <v>32</v>
       </c>
       <c r="CO14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Class_VIII/Hindi/Result.xlsx
+++ b/Class_VIII/Hindi/Result.xlsx
@@ -28,256 +28,256 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>Formative Assessment-3_Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_English I_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Social Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Social Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Hindi</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Hindi_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_English I_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Social Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Social Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Hindi</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Hindi_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Maths_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Science</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Science_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Science_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_English I</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_English I_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_English I_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Computer</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Computer_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Computer_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Social Science</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Social Science_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Hindi</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Hindi_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_English II</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_English II_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_English II_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Maths</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Maths_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Maths_pass</t>
+    <t>Formative Assessment I_Maths</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Maths_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Computer</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Computer_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Computer_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_English II</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_English II_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_English II_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Science</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Science_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Science_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Social Science</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Social Science_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Social Science_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_English I</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_English I_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_English I_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Hindi</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Hindi_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Hindi_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Maths</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Maths_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Computer</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Computer_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Computer_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_English II</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_English II_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_English II_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Science</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Science_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Science_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Social Science</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Social Science_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Social Science_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_English I</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_English I_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_English I_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Hindi</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Hindi_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Hindi_pass</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Maths</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Maths_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Maths_pass</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Computer</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Computer_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Computer_pass</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_English II</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_English II_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_English II_pass</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Science</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Science_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Science_pass</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Social Science</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Social Science_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Social Science_pass</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_English I</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_English I_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_English I_pass</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Hindi</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Hindi_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Hindi_pass</t>
+  </si>
+  <si>
+    <t>Weightage Maths</t>
+  </si>
+  <si>
+    <t>Weightage Computer</t>
+  </si>
+  <si>
+    <t>Weightage English II</t>
   </si>
   <si>
     <t>Weightage Science</t>
   </si>
   <si>
+    <t>Weightage Social Science</t>
+  </si>
+  <si>
     <t>Weightage English I</t>
   </si>
   <si>
-    <t>Weightage Computer</t>
-  </si>
-  <si>
-    <t>Weightage Social Science</t>
-  </si>
-  <si>
     <t>Weightage Hindi</t>
   </si>
   <si>
-    <t>Weightage English II</t>
-  </si>
-  <si>
-    <t>Weightage Maths</t>
+    <t>Weightage Maths total</t>
+  </si>
+  <si>
+    <t>Weightage Computer total</t>
+  </si>
+  <si>
+    <t>Weightage English II total</t>
   </si>
   <si>
     <t>Weightage Science total</t>
   </si>
   <si>
+    <t>Weightage Social Science total</t>
+  </si>
+  <si>
     <t>Weightage English I total</t>
   </si>
   <si>
-    <t>Weightage Computer total</t>
-  </si>
-  <si>
-    <t>Weightage Social Science total</t>
-  </si>
-  <si>
     <t>Weightage Hindi total</t>
   </si>
   <si>
-    <t>Weightage English II total</t>
-  </si>
-  <si>
-    <t>Weightage Maths total</t>
+    <t>Result Maths</t>
+  </si>
+  <si>
+    <t>Result Computer</t>
+  </si>
+  <si>
+    <t>Result English II</t>
   </si>
   <si>
     <t>Result Science</t>
   </si>
   <si>
+    <t>Result Social Science</t>
+  </si>
+  <si>
     <t>Result English I</t>
   </si>
   <si>
-    <t>Result Computer</t>
-  </si>
-  <si>
-    <t>Result Social Science</t>
-  </si>
-  <si>
     <t>Result Hindi</t>
-  </si>
-  <si>
-    <t>Result English II</t>
-  </si>
-  <si>
-    <t>Result Maths</t>
   </si>
   <si>
     <t>Total Weightage</t>
@@ -1002,80 +1002,80 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
+      <c r="R2">
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>19</v>
-      </c>
-      <c r="L2">
-        <v>25</v>
-      </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-      <c r="N2">
-        <v>20</v>
-      </c>
-      <c r="O2">
-        <v>25</v>
-      </c>
-      <c r="P2">
-        <v>7</v>
-      </c>
-      <c r="Q2">
-        <v>16.5</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>7</v>
-      </c>
-      <c r="T2">
+      <c r="U2">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>25</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <v>13.5</v>
+      </c>
+      <c r="AA2">
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <v>7</v>
+      </c>
+      <c r="AC2">
         <v>13</v>
       </c>
-      <c r="U2">
-        <v>25</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>11</v>
-      </c>
-      <c r="X2">
-        <v>25</v>
-      </c>
-      <c r="Y2">
-        <v>7</v>
-      </c>
-      <c r="Z2">
-        <v>17.5</v>
-      </c>
-      <c r="AA2">
-        <v>25</v>
-      </c>
-      <c r="AB2">
-        <v>7</v>
-      </c>
-      <c r="AC2">
-        <v>21</v>
-      </c>
       <c r="AD2">
         <v>25</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="AF2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG2">
         <v>25</v>
@@ -1092,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="AI2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AJ2">
         <v>25</v>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AM2">
         <v>25</v>
@@ -1110,17 +1110,17 @@
         <v>7</v>
       </c>
       <c r="AO2">
+        <v>18.5</v>
+      </c>
+      <c r="AP2">
+        <v>25</v>
+      </c>
+      <c r="AQ2">
+        <v>7</v>
+      </c>
+      <c r="AR2">
         <v>12</v>
       </c>
-      <c r="AP2">
-        <v>25</v>
-      </c>
-      <c r="AQ2">
-        <v>7</v>
-      </c>
-      <c r="AR2">
-        <v>9</v>
-      </c>
       <c r="AS2">
         <v>25</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="AU2">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="AV2">
         <v>100</v>
@@ -1137,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="AX2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AY2">
         <v>100</v>
@@ -1146,7 +1146,7 @@
         <v>30</v>
       </c>
       <c r="BA2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BB2">
         <v>100</v>
@@ -1155,7 +1155,7 @@
         <v>30</v>
       </c>
       <c r="BD2">
-        <v>65</v>
+        <v>77.5</v>
       </c>
       <c r="BE2">
         <v>100</v>
@@ -1173,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="BJ2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="BK2">
         <v>100</v>
@@ -1182,7 +1182,7 @@
         <v>30</v>
       </c>
       <c r="BM2">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BN2">
         <v>100</v>
@@ -1191,25 +1191,25 @@
         <v>30</v>
       </c>
       <c r="BP2">
-        <v>75.40000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="BQ2">
-        <v>71.59999999999999</v>
+        <v>52.4</v>
       </c>
       <c r="BR2">
-        <v>57</v>
+        <v>55.2</v>
       </c>
       <c r="BS2">
-        <v>67.2</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="BT2">
-        <v>65</v>
+        <v>63.2</v>
       </c>
       <c r="BU2">
-        <v>53.2</v>
+        <v>72.2</v>
       </c>
       <c r="BV2">
-        <v>40.8</v>
+        <v>58.4</v>
       </c>
       <c r="BW2">
         <v>100</v>
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="CK2">
-        <v>430.2</v>
+        <v>421.2</v>
       </c>
       <c r="CL2" t="s">
         <v>108</v>
@@ -1263,10 +1263,10 @@
         <v>700</v>
       </c>
       <c r="CN2">
-        <v>61.45714285714286</v>
+        <v>60.17142857142856</v>
       </c>
       <c r="CO2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -1292,17 +1292,17 @@
         <v>7</v>
       </c>
       <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
         <v>22.5</v>
       </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>21</v>
-      </c>
       <c r="L3">
         <v>25</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3">
         <v>25</v>
@@ -1319,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="Q3">
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="R3">
         <v>25</v>
@@ -1328,53 +1328,53 @@
         <v>7</v>
       </c>
       <c r="T3">
+        <v>22</v>
+      </c>
+      <c r="U3">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>24</v>
+      </c>
+      <c r="X3">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
         <v>14</v>
       </c>
-      <c r="U3">
-        <v>25</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
+      <c r="AA3">
+        <v>25</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>21.5</v>
+      </c>
+      <c r="AD3">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>18.5</v>
+      </c>
+      <c r="AG3">
+        <v>25</v>
+      </c>
+      <c r="AH3">
+        <v>7</v>
+      </c>
+      <c r="AI3">
         <v>17</v>
       </c>
-      <c r="X3">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>7</v>
-      </c>
-      <c r="Z3">
-        <v>19</v>
-      </c>
-      <c r="AA3">
-        <v>25</v>
-      </c>
-      <c r="AB3">
-        <v>7</v>
-      </c>
-      <c r="AC3">
-        <v>21</v>
-      </c>
-      <c r="AD3">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>21.5</v>
-      </c>
-      <c r="AG3">
-        <v>25</v>
-      </c>
-      <c r="AH3">
-        <v>7</v>
-      </c>
-      <c r="AI3">
-        <v>22</v>
-      </c>
       <c r="AJ3">
         <v>25</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="AL3">
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="AM3">
         <v>25</v>
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="AR3">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AS3">
         <v>25</v>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="AU3">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AV3">
         <v>100</v>
@@ -1418,79 +1418,79 @@
         <v>30</v>
       </c>
       <c r="AX3">
+        <v>64</v>
+      </c>
+      <c r="AY3">
+        <v>100</v>
+      </c>
+      <c r="AZ3">
+        <v>30</v>
+      </c>
+      <c r="BA3">
+        <v>80</v>
+      </c>
+      <c r="BB3">
+        <v>100</v>
+      </c>
+      <c r="BC3">
+        <v>30</v>
+      </c>
+      <c r="BD3">
+        <v>87</v>
+      </c>
+      <c r="BE3">
+        <v>100</v>
+      </c>
+      <c r="BF3">
+        <v>30</v>
+      </c>
+      <c r="BG3">
+        <v>77</v>
+      </c>
+      <c r="BH3">
+        <v>100</v>
+      </c>
+      <c r="BI3">
+        <v>30</v>
+      </c>
+      <c r="BJ3">
+        <v>81</v>
+      </c>
+      <c r="BK3">
+        <v>100</v>
+      </c>
+      <c r="BL3">
+        <v>30</v>
+      </c>
+      <c r="BM3">
+        <v>90</v>
+      </c>
+      <c r="BN3">
+        <v>100</v>
+      </c>
+      <c r="BO3">
+        <v>30</v>
+      </c>
+      <c r="BP3">
+        <v>58.4</v>
+      </c>
+      <c r="BQ3">
+        <v>66.2</v>
+      </c>
+      <c r="BR3">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="BS3">
         <v>84</v>
       </c>
-      <c r="AY3">
-        <v>100</v>
-      </c>
-      <c r="AZ3">
-        <v>30</v>
-      </c>
-      <c r="BA3">
-        <v>80.5</v>
-      </c>
-      <c r="BB3">
-        <v>100</v>
-      </c>
-      <c r="BC3">
-        <v>30</v>
-      </c>
-      <c r="BD3">
-        <v>85</v>
-      </c>
-      <c r="BE3">
-        <v>100</v>
-      </c>
-      <c r="BF3">
-        <v>30</v>
-      </c>
-      <c r="BG3">
+      <c r="BT3">
+        <v>80</v>
+      </c>
+      <c r="BU3">
         <v>82</v>
       </c>
-      <c r="BH3">
-        <v>100</v>
-      </c>
-      <c r="BI3">
-        <v>30</v>
-      </c>
-      <c r="BJ3">
-        <v>74</v>
-      </c>
-      <c r="BK3">
-        <v>100</v>
-      </c>
-      <c r="BL3">
-        <v>30</v>
-      </c>
-      <c r="BM3">
-        <v>49</v>
-      </c>
-      <c r="BN3">
-        <v>100</v>
-      </c>
-      <c r="BO3">
-        <v>30</v>
-      </c>
-      <c r="BP3">
-        <v>87.2</v>
-      </c>
-      <c r="BQ3">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="BR3">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="BS3">
-        <v>85.2</v>
-      </c>
-      <c r="BT3">
-        <v>81</v>
-      </c>
-      <c r="BU3">
-        <v>73.2</v>
-      </c>
       <c r="BV3">
-        <v>52.6</v>
+        <v>90</v>
       </c>
       <c r="BW3">
         <v>100</v>
@@ -1535,7 +1535,7 @@
         <v>108</v>
       </c>
       <c r="CK3">
-        <v>545.2</v>
+        <v>541</v>
       </c>
       <c r="CL3" t="s">
         <v>108</v>
@@ -1544,10 +1544,10 @@
         <v>700</v>
       </c>
       <c r="CN3">
-        <v>77.88571428571429</v>
+        <v>77.28571428571429</v>
       </c>
       <c r="CO3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -1573,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>25</v>
@@ -1591,53 +1591,53 @@
         <v>7</v>
       </c>
       <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>3.5</v>
+      </c>
+      <c r="R4">
+        <v>25</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
         <v>8</v>
       </c>
-      <c r="O4">
-        <v>25</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>8</v>
+      </c>
+      <c r="X4">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <v>25</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
         <v>6.5</v>
       </c>
-      <c r="R4">
-        <v>25</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <v>6</v>
-      </c>
-      <c r="U4">
-        <v>25</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>7</v>
-      </c>
-      <c r="X4">
-        <v>25</v>
-      </c>
-      <c r="Y4">
-        <v>7</v>
-      </c>
-      <c r="Z4">
-        <v>5</v>
-      </c>
-      <c r="AA4">
-        <v>25</v>
-      </c>
-      <c r="AB4">
-        <v>7</v>
-      </c>
-      <c r="AC4">
-        <v>6</v>
-      </c>
       <c r="AD4">
         <v>25</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="AF4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG4">
         <v>25</v>
@@ -1654,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="AI4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ4">
         <v>25</v>
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="AL4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>25</v>
@@ -1672,17 +1672,17 @@
         <v>7</v>
       </c>
       <c r="AO4">
+        <v>4.5</v>
+      </c>
+      <c r="AP4">
+        <v>25</v>
+      </c>
+      <c r="AQ4">
+        <v>7</v>
+      </c>
+      <c r="AR4">
         <v>9</v>
       </c>
-      <c r="AP4">
-        <v>25</v>
-      </c>
-      <c r="AQ4">
-        <v>7</v>
-      </c>
-      <c r="AR4">
-        <v>5</v>
-      </c>
       <c r="AS4">
         <v>25</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>7</v>
       </c>
       <c r="AU4">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AV4">
         <v>100</v>
@@ -1699,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="AX4">
-        <v>36</v>
+        <v>23.5</v>
       </c>
       <c r="AY4">
         <v>100</v>
@@ -1708,7 +1708,7 @@
         <v>30</v>
       </c>
       <c r="BA4">
-        <v>25.5</v>
+        <v>30</v>
       </c>
       <c r="BB4">
         <v>100</v>
@@ -1717,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="BD4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BE4">
         <v>100</v>
@@ -1726,7 +1726,7 @@
         <v>30</v>
       </c>
       <c r="BG4">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="BH4">
         <v>100</v>
@@ -1735,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="BJ4">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="BK4">
         <v>100</v>
@@ -1744,7 +1744,7 @@
         <v>30</v>
       </c>
       <c r="BM4">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="BN4">
         <v>100</v>
@@ -1753,25 +1753,25 @@
         <v>30</v>
       </c>
       <c r="BP4">
-        <v>41</v>
+        <v>17.6</v>
       </c>
       <c r="BQ4">
-        <v>33.2</v>
+        <v>22.2</v>
       </c>
       <c r="BR4">
-        <v>26</v>
+        <v>30.8</v>
       </c>
       <c r="BS4">
-        <v>24.4</v>
+        <v>20.4</v>
       </c>
       <c r="BT4">
-        <v>37.4</v>
+        <v>16.6</v>
       </c>
       <c r="BU4">
-        <v>34.8</v>
+        <v>24.2</v>
       </c>
       <c r="BV4">
-        <v>30.4</v>
+        <v>45.2</v>
       </c>
       <c r="BW4">
         <v>100</v>
@@ -1795,37 +1795,37 @@
         <v>100</v>
       </c>
       <c r="CD4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CE4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CF4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CG4" t="s">
         <v>109</v>
       </c>
       <c r="CH4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CI4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CJ4" t="s">
         <v>108</v>
       </c>
       <c r="CK4">
-        <v>227.2</v>
+        <v>177</v>
       </c>
       <c r="CL4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CM4">
         <v>700</v>
       </c>
       <c r="CN4">
-        <v>32.45714285714286</v>
+        <v>25.28571428571428</v>
       </c>
       <c r="CO4">
         <v>9</v>
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -1863,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L5">
         <v>25</v>
@@ -1872,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>25</v>
@@ -1881,7 +1881,7 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="R5">
         <v>25</v>
@@ -1890,44 +1890,44 @@
         <v>7</v>
       </c>
       <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>25</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>12.5</v>
+      </c>
+      <c r="X5">
+        <v>25</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>25</v>
+      </c>
+      <c r="AB5">
+        <v>7</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>25</v>
+      </c>
+      <c r="AE5">
+        <v>7</v>
+      </c>
+      <c r="AF5">
         <v>5</v>
       </c>
-      <c r="U5">
-        <v>25</v>
-      </c>
-      <c r="V5">
-        <v>7</v>
-      </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
-      <c r="X5">
-        <v>25</v>
-      </c>
-      <c r="Y5">
-        <v>7</v>
-      </c>
-      <c r="Z5">
-        <v>4.5</v>
-      </c>
-      <c r="AA5">
-        <v>25</v>
-      </c>
-      <c r="AB5">
-        <v>7</v>
-      </c>
-      <c r="AC5">
-        <v>9</v>
-      </c>
-      <c r="AD5">
-        <v>25</v>
-      </c>
-      <c r="AE5">
-        <v>7</v>
-      </c>
-      <c r="AF5">
-        <v>7</v>
-      </c>
       <c r="AG5">
         <v>25</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>7</v>
       </c>
       <c r="AI5">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="AJ5">
         <v>25</v>
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="AL5">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM5">
         <v>25</v>
@@ -1962,7 +1962,7 @@
         <v>7</v>
       </c>
       <c r="AR5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AS5">
         <v>25</v>
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="AU5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>100</v>
@@ -1980,7 +1980,7 @@
         <v>30</v>
       </c>
       <c r="AX5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>100</v>
@@ -1989,7 +1989,7 @@
         <v>30</v>
       </c>
       <c r="BA5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>100</v>
@@ -1998,7 +1998,7 @@
         <v>30</v>
       </c>
       <c r="BD5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BE5">
         <v>100</v>
@@ -2007,7 +2007,7 @@
         <v>30</v>
       </c>
       <c r="BG5">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BH5">
         <v>100</v>
@@ -2016,7 +2016,7 @@
         <v>30</v>
       </c>
       <c r="BJ5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>100</v>
@@ -2025,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="BM5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BN5">
         <v>100</v>
@@ -2034,25 +2034,25 @@
         <v>30</v>
       </c>
       <c r="BP5">
-        <v>28</v>
+        <v>2.4</v>
       </c>
       <c r="BQ5">
-        <v>30.2</v>
+        <v>4.2</v>
       </c>
       <c r="BR5">
-        <v>24</v>
+        <v>8.4</v>
       </c>
       <c r="BS5">
-        <v>20.6</v>
+        <v>12.8</v>
       </c>
       <c r="BT5">
-        <v>34</v>
+        <v>2.6</v>
       </c>
       <c r="BU5">
-        <v>19.6</v>
+        <v>3.2</v>
       </c>
       <c r="BV5">
-        <v>20.8</v>
+        <v>8</v>
       </c>
       <c r="BW5">
         <v>100</v>
@@ -2079,7 +2079,7 @@
         <v>109</v>
       </c>
       <c r="CE5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CF5" t="s">
         <v>109</v>
@@ -2088,7 +2088,7 @@
         <v>109</v>
       </c>
       <c r="CH5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CI5" t="s">
         <v>109</v>
@@ -2097,7 +2097,7 @@
         <v>109</v>
       </c>
       <c r="CK5">
-        <v>177.2</v>
+        <v>41.6</v>
       </c>
       <c r="CL5" t="s">
         <v>109</v>
@@ -2106,10 +2106,10 @@
         <v>700</v>
       </c>
       <c r="CN5">
-        <v>25.31428571428572</v>
+        <v>5.942857142857143</v>
       </c>
       <c r="CO5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -2135,7 +2135,7 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>25</v>
@@ -2144,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
       <c r="L6">
         <v>25</v>
@@ -2153,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="N6">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="O6">
         <v>25</v>
@@ -2162,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>6.5</v>
+        <v>18</v>
       </c>
       <c r="R6">
         <v>25</v>
@@ -2171,7 +2171,7 @@
         <v>7</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="U6">
         <v>25</v>
@@ -2180,7 +2180,7 @@
         <v>7</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="X6">
         <v>25</v>
@@ -2189,62 +2189,62 @@
         <v>7</v>
       </c>
       <c r="Z6">
+        <v>4.5</v>
+      </c>
+      <c r="AA6">
+        <v>25</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+      <c r="AC6">
+        <v>11</v>
+      </c>
+      <c r="AD6">
+        <v>25</v>
+      </c>
+      <c r="AE6">
+        <v>7</v>
+      </c>
+      <c r="AF6">
+        <v>15</v>
+      </c>
+      <c r="AG6">
+        <v>25</v>
+      </c>
+      <c r="AH6">
+        <v>7</v>
+      </c>
+      <c r="AI6">
+        <v>12</v>
+      </c>
+      <c r="AJ6">
+        <v>25</v>
+      </c>
+      <c r="AK6">
+        <v>7</v>
+      </c>
+      <c r="AL6">
+        <v>14.5</v>
+      </c>
+      <c r="AM6">
+        <v>25</v>
+      </c>
+      <c r="AN6">
+        <v>7</v>
+      </c>
+      <c r="AO6">
+        <v>12</v>
+      </c>
+      <c r="AP6">
+        <v>25</v>
+      </c>
+      <c r="AQ6">
+        <v>7</v>
+      </c>
+      <c r="AR6">
         <v>8</v>
       </c>
-      <c r="AA6">
-        <v>25</v>
-      </c>
-      <c r="AB6">
-        <v>7</v>
-      </c>
-      <c r="AC6">
-        <v>13</v>
-      </c>
-      <c r="AD6">
-        <v>25</v>
-      </c>
-      <c r="AE6">
-        <v>7</v>
-      </c>
-      <c r="AF6">
-        <v>7</v>
-      </c>
-      <c r="AG6">
-        <v>25</v>
-      </c>
-      <c r="AH6">
-        <v>7</v>
-      </c>
-      <c r="AI6">
-        <v>3.5</v>
-      </c>
-      <c r="AJ6">
-        <v>25</v>
-      </c>
-      <c r="AK6">
-        <v>7</v>
-      </c>
-      <c r="AL6">
-        <v>7</v>
-      </c>
-      <c r="AM6">
-        <v>25</v>
-      </c>
-      <c r="AN6">
-        <v>7</v>
-      </c>
-      <c r="AO6">
-        <v>8</v>
-      </c>
-      <c r="AP6">
-        <v>25</v>
-      </c>
-      <c r="AQ6">
-        <v>7</v>
-      </c>
-      <c r="AR6">
-        <v>2</v>
-      </c>
       <c r="AS6">
         <v>25</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>7</v>
       </c>
       <c r="AU6">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="AV6">
         <v>100</v>
@@ -2261,7 +2261,7 @@
         <v>30</v>
       </c>
       <c r="AX6">
-        <v>51</v>
+        <v>38.5</v>
       </c>
       <c r="AY6">
         <v>100</v>
@@ -2270,7 +2270,7 @@
         <v>30</v>
       </c>
       <c r="BA6">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="BB6">
         <v>100</v>
@@ -2279,7 +2279,7 @@
         <v>30</v>
       </c>
       <c r="BD6">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="BE6">
         <v>100</v>
@@ -2288,7 +2288,7 @@
         <v>30</v>
       </c>
       <c r="BG6">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="BH6">
         <v>100</v>
@@ -2297,7 +2297,7 @@
         <v>30</v>
       </c>
       <c r="BJ6">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="BK6">
         <v>100</v>
@@ -2306,7 +2306,7 @@
         <v>30</v>
       </c>
       <c r="BM6">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="BN6">
         <v>100</v>
@@ -2315,26 +2315,26 @@
         <v>30</v>
       </c>
       <c r="BP6">
+        <v>19</v>
+      </c>
+      <c r="BQ6">
+        <v>39.2</v>
+      </c>
+      <c r="BR6">
+        <v>48.2</v>
+      </c>
+      <c r="BS6">
+        <v>52.4</v>
+      </c>
+      <c r="BT6">
+        <v>49</v>
+      </c>
+      <c r="BU6">
+        <v>45.8</v>
+      </c>
+      <c r="BV6">
         <v>46</v>
       </c>
-      <c r="BQ6">
-        <v>50.2</v>
-      </c>
-      <c r="BR6">
-        <v>36.2</v>
-      </c>
-      <c r="BS6">
-        <v>30.8</v>
-      </c>
-      <c r="BT6">
-        <v>34.2</v>
-      </c>
-      <c r="BU6">
-        <v>48.4</v>
-      </c>
-      <c r="BV6">
-        <v>21.2</v>
-      </c>
       <c r="BW6">
         <v>100</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>100</v>
       </c>
       <c r="CD6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CE6" t="s">
         <v>108</v>
@@ -2375,10 +2375,10 @@
         <v>108</v>
       </c>
       <c r="CJ6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CK6">
-        <v>267.0000000000001</v>
+        <v>299.6</v>
       </c>
       <c r="CL6" t="s">
         <v>108</v>
@@ -2387,7 +2387,7 @@
         <v>700</v>
       </c>
       <c r="CN6">
-        <v>38.14285714285715</v>
+        <v>42.8</v>
       </c>
       <c r="CO6">
         <v>7</v>
@@ -2416,107 +2416,107 @@
         <v>7</v>
       </c>
       <c r="H7">
+        <v>7.5</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>18.5</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
         <v>13.5</v>
       </c>
-      <c r="I7">
-        <v>25</v>
-      </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
-      <c r="K7">
+      <c r="U7">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>15.5</v>
+      </c>
+      <c r="X7">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>13</v>
+      </c>
+      <c r="AA7">
+        <v>25</v>
+      </c>
+      <c r="AB7">
+        <v>7</v>
+      </c>
+      <c r="AC7">
         <v>14</v>
       </c>
-      <c r="L7">
-        <v>25</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>7</v>
-      </c>
-      <c r="O7">
-        <v>25</v>
-      </c>
-      <c r="P7">
-        <v>7</v>
-      </c>
-      <c r="Q7">
+      <c r="AD7">
+        <v>25</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
+      </c>
+      <c r="AF7">
+        <v>13.5</v>
+      </c>
+      <c r="AG7">
+        <v>25</v>
+      </c>
+      <c r="AH7">
+        <v>7</v>
+      </c>
+      <c r="AI7">
         <v>10.5</v>
       </c>
-      <c r="R7">
-        <v>25</v>
-      </c>
-      <c r="S7">
-        <v>7</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="U7">
-        <v>25</v>
-      </c>
-      <c r="V7">
-        <v>7</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>25</v>
-      </c>
-      <c r="Y7">
-        <v>7</v>
-      </c>
-      <c r="Z7">
-        <v>6</v>
-      </c>
-      <c r="AA7">
-        <v>25</v>
-      </c>
-      <c r="AB7">
-        <v>7</v>
-      </c>
-      <c r="AC7">
+      <c r="AJ7">
+        <v>25</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
+        <v>15.5</v>
+      </c>
+      <c r="AM7">
+        <v>25</v>
+      </c>
+      <c r="AN7">
+        <v>7</v>
+      </c>
+      <c r="AO7">
         <v>18</v>
       </c>
-      <c r="AD7">
-        <v>25</v>
-      </c>
-      <c r="AE7">
-        <v>7</v>
-      </c>
-      <c r="AF7">
-        <v>5</v>
-      </c>
-      <c r="AG7">
-        <v>25</v>
-      </c>
-      <c r="AH7">
-        <v>7</v>
-      </c>
-      <c r="AI7">
-        <v>6.5</v>
-      </c>
-      <c r="AJ7">
-        <v>25</v>
-      </c>
-      <c r="AK7">
-        <v>7</v>
-      </c>
-      <c r="AL7">
-        <v>10.5</v>
-      </c>
-      <c r="AM7">
-        <v>25</v>
-      </c>
-      <c r="AN7">
-        <v>7</v>
-      </c>
-      <c r="AO7">
-        <v>16</v>
-      </c>
       <c r="AP7">
         <v>25</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="AR7">
-        <v>2</v>
+        <v>15.5</v>
       </c>
       <c r="AS7">
         <v>25</v>
@@ -2533,7 +2533,7 @@
         <v>7</v>
       </c>
       <c r="AU7">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AV7">
         <v>100</v>
@@ -2542,44 +2542,44 @@
         <v>30</v>
       </c>
       <c r="AX7">
+        <v>38</v>
+      </c>
+      <c r="AY7">
+        <v>100</v>
+      </c>
+      <c r="AZ7">
+        <v>30</v>
+      </c>
+      <c r="BA7">
+        <v>76</v>
+      </c>
+      <c r="BB7">
+        <v>100</v>
+      </c>
+      <c r="BC7">
+        <v>30</v>
+      </c>
+      <c r="BD7">
+        <v>47</v>
+      </c>
+      <c r="BE7">
+        <v>100</v>
+      </c>
+      <c r="BF7">
+        <v>30</v>
+      </c>
+      <c r="BG7">
+        <v>43</v>
+      </c>
+      <c r="BH7">
+        <v>100</v>
+      </c>
+      <c r="BI7">
+        <v>30</v>
+      </c>
+      <c r="BJ7">
         <v>63</v>
       </c>
-      <c r="AY7">
-        <v>100</v>
-      </c>
-      <c r="AZ7">
-        <v>30</v>
-      </c>
-      <c r="BA7">
-        <v>43</v>
-      </c>
-      <c r="BB7">
-        <v>100</v>
-      </c>
-      <c r="BC7">
-        <v>30</v>
-      </c>
-      <c r="BD7">
-        <v>48</v>
-      </c>
-      <c r="BE7">
-        <v>100</v>
-      </c>
-      <c r="BF7">
-        <v>30</v>
-      </c>
-      <c r="BG7">
-        <v>48</v>
-      </c>
-      <c r="BH7">
-        <v>100</v>
-      </c>
-      <c r="BI7">
-        <v>30</v>
-      </c>
-      <c r="BJ7">
-        <v>56</v>
-      </c>
       <c r="BK7">
         <v>100</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>30</v>
       </c>
       <c r="BM7">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BN7">
         <v>100</v>
@@ -2596,25 +2596,25 @@
         <v>30</v>
       </c>
       <c r="BP7">
-        <v>41.2</v>
+        <v>16.8</v>
       </c>
       <c r="BQ7">
+        <v>39</v>
+      </c>
+      <c r="BR7">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="BS7">
+        <v>46.6</v>
+      </c>
+      <c r="BT7">
+        <v>45</v>
+      </c>
+      <c r="BU7">
         <v>63</v>
       </c>
-      <c r="BR7">
-        <v>42</v>
-      </c>
-      <c r="BS7">
-        <v>43.8</v>
-      </c>
-      <c r="BT7">
-        <v>46.8</v>
-      </c>
-      <c r="BU7">
-        <v>53.6</v>
-      </c>
       <c r="BV7">
-        <v>18.4</v>
+        <v>66</v>
       </c>
       <c r="BW7">
         <v>100</v>
@@ -2638,7 +2638,7 @@
         <v>100</v>
       </c>
       <c r="CD7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CE7" t="s">
         <v>108</v>
@@ -2656,10 +2656,10 @@
         <v>108</v>
       </c>
       <c r="CJ7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CK7">
-        <v>308.8</v>
+        <v>350</v>
       </c>
       <c r="CL7" t="s">
         <v>108</v>
@@ -2668,7 +2668,7 @@
         <v>700</v>
       </c>
       <c r="CN7">
-        <v>44.11428571428571</v>
+        <v>50</v>
       </c>
       <c r="CO7">
         <v>6</v>
@@ -2688,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>25</v>
@@ -2697,98 +2697,98 @@
         <v>7</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="I8">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>5.5</v>
+      </c>
+      <c r="U8">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>25</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>25</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
         <v>13</v>
       </c>
-      <c r="L8">
-        <v>25</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>8.5</v>
-      </c>
-      <c r="O8">
-        <v>25</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
-      </c>
-      <c r="R8">
-        <v>25</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
+      <c r="AD8">
+        <v>25</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AF8">
+        <v>4.5</v>
+      </c>
+      <c r="AG8">
+        <v>25</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
+      </c>
+      <c r="AJ8">
+        <v>25</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+      <c r="AL8">
         <v>1.5</v>
       </c>
-      <c r="U8">
-        <v>25</v>
-      </c>
-      <c r="V8">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>25</v>
-      </c>
-      <c r="Y8">
-        <v>7</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>25</v>
-      </c>
-      <c r="AB8">
-        <v>7</v>
-      </c>
-      <c r="AC8">
-        <v>6</v>
-      </c>
-      <c r="AD8">
-        <v>25</v>
-      </c>
-      <c r="AE8">
-        <v>7</v>
-      </c>
-      <c r="AF8">
-        <v>4</v>
-      </c>
-      <c r="AG8">
-        <v>25</v>
-      </c>
-      <c r="AH8">
-        <v>7</v>
-      </c>
-      <c r="AI8">
-        <v>2.5</v>
-      </c>
-      <c r="AJ8">
-        <v>25</v>
-      </c>
-      <c r="AK8">
-        <v>7</v>
-      </c>
-      <c r="AL8">
-        <v>6.5</v>
-      </c>
       <c r="AM8">
         <v>25</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>7</v>
       </c>
       <c r="AO8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP8">
         <v>25</v>
@@ -2805,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AS8">
         <v>25</v>
@@ -2814,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="AU8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AV8">
         <v>100</v>
@@ -2823,7 +2823,7 @@
         <v>30</v>
       </c>
       <c r="AX8">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="AY8">
         <v>100</v>
@@ -2832,7 +2832,7 @@
         <v>30</v>
       </c>
       <c r="BA8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="BB8">
         <v>100</v>
@@ -2841,7 +2841,7 @@
         <v>30</v>
       </c>
       <c r="BD8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BE8">
         <v>100</v>
@@ -2850,7 +2850,7 @@
         <v>30</v>
       </c>
       <c r="BG8">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="BH8">
         <v>100</v>
@@ -2859,7 +2859,7 @@
         <v>30</v>
       </c>
       <c r="BJ8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BK8">
         <v>100</v>
@@ -2868,7 +2868,7 @@
         <v>30</v>
       </c>
       <c r="BM8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="BN8">
         <v>100</v>
@@ -2877,25 +2877,25 @@
         <v>30</v>
       </c>
       <c r="BP8">
-        <v>20</v>
+        <v>12.8</v>
       </c>
       <c r="BQ8">
-        <v>37.2</v>
+        <v>26.4</v>
       </c>
       <c r="BR8">
-        <v>25.2</v>
+        <v>19</v>
       </c>
       <c r="BS8">
-        <v>24.4</v>
+        <v>10</v>
       </c>
       <c r="BT8">
-        <v>35.8</v>
+        <v>19</v>
       </c>
       <c r="BU8">
-        <v>16.6</v>
+        <v>17</v>
       </c>
       <c r="BV8">
-        <v>11.6</v>
+        <v>44</v>
       </c>
       <c r="BW8">
         <v>100</v>
@@ -2922,7 +2922,7 @@
         <v>109</v>
       </c>
       <c r="CE8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CF8" t="s">
         <v>109</v>
@@ -2931,16 +2931,16 @@
         <v>109</v>
       </c>
       <c r="CH8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CI8" t="s">
         <v>109</v>
       </c>
       <c r="CJ8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CK8">
-        <v>170.8</v>
+        <v>148.2</v>
       </c>
       <c r="CL8" t="s">
         <v>109</v>
@@ -2949,10 +2949,10 @@
         <v>700</v>
       </c>
       <c r="CN8">
-        <v>24.4</v>
+        <v>21.17142857142857</v>
       </c>
       <c r="CO8">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2969,7 +2969,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>25</v>
@@ -2978,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>25</v>
@@ -2987,7 +2987,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <v>25</v>
@@ -2996,7 +2996,7 @@
         <v>7</v>
       </c>
       <c r="N9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>25</v>
@@ -3005,7 +3005,7 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R9">
         <v>25</v>
@@ -3014,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="U9">
         <v>25</v>
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA9">
         <v>25</v>
@@ -3041,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="AC9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD9">
         <v>25</v>
@@ -3050,7 +3050,7 @@
         <v>7</v>
       </c>
       <c r="AF9">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG9">
         <v>25</v>
@@ -3059,7 +3059,7 @@
         <v>7</v>
       </c>
       <c r="AI9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AJ9">
         <v>25</v>
@@ -3068,17 +3068,17 @@
         <v>7</v>
       </c>
       <c r="AL9">
+        <v>13</v>
+      </c>
+      <c r="AM9">
+        <v>25</v>
+      </c>
+      <c r="AN9">
+        <v>7</v>
+      </c>
+      <c r="AO9">
         <v>21</v>
       </c>
-      <c r="AM9">
-        <v>25</v>
-      </c>
-      <c r="AN9">
-        <v>7</v>
-      </c>
-      <c r="AO9">
-        <v>15</v>
-      </c>
       <c r="AP9">
         <v>25</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="AR9">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AS9">
         <v>25</v>
@@ -3104,7 +3104,7 @@
         <v>30</v>
       </c>
       <c r="AX9">
-        <v>73</v>
+        <v>37.5</v>
       </c>
       <c r="AY9">
         <v>100</v>
@@ -3113,70 +3113,70 @@
         <v>30</v>
       </c>
       <c r="BA9">
+        <v>80</v>
+      </c>
+      <c r="BB9">
+        <v>100</v>
+      </c>
+      <c r="BC9">
+        <v>30</v>
+      </c>
+      <c r="BD9">
+        <v>64</v>
+      </c>
+      <c r="BE9">
+        <v>100</v>
+      </c>
+      <c r="BF9">
+        <v>30</v>
+      </c>
+      <c r="BG9">
+        <v>49</v>
+      </c>
+      <c r="BH9">
+        <v>100</v>
+      </c>
+      <c r="BI9">
+        <v>30</v>
+      </c>
+      <c r="BJ9">
+        <v>67</v>
+      </c>
+      <c r="BK9">
+        <v>100</v>
+      </c>
+      <c r="BL9">
+        <v>30</v>
+      </c>
+      <c r="BM9">
+        <v>61</v>
+      </c>
+      <c r="BN9">
+        <v>100</v>
+      </c>
+      <c r="BO9">
+        <v>30</v>
+      </c>
+      <c r="BP9">
         <v>63</v>
       </c>
-      <c r="BB9">
-        <v>100</v>
-      </c>
-      <c r="BC9">
-        <v>30</v>
-      </c>
-      <c r="BD9">
-        <v>69</v>
-      </c>
-      <c r="BE9">
-        <v>100</v>
-      </c>
-      <c r="BF9">
-        <v>30</v>
-      </c>
-      <c r="BG9">
-        <v>79</v>
-      </c>
-      <c r="BH9">
-        <v>100</v>
-      </c>
-      <c r="BI9">
-        <v>30</v>
-      </c>
-      <c r="BJ9">
-        <v>76</v>
-      </c>
-      <c r="BK9">
-        <v>100</v>
-      </c>
-      <c r="BL9">
-        <v>30</v>
-      </c>
-      <c r="BM9">
-        <v>47</v>
-      </c>
-      <c r="BN9">
-        <v>100</v>
-      </c>
-      <c r="BO9">
-        <v>30</v>
-      </c>
-      <c r="BP9">
-        <v>61</v>
-      </c>
       <c r="BQ9">
-        <v>75.2</v>
+        <v>39.6</v>
       </c>
       <c r="BR9">
-        <v>64.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="BS9">
-        <v>71.59999999999999</v>
+        <v>57.2</v>
       </c>
       <c r="BT9">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="BU9">
-        <v>72.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="BV9">
-        <v>48.6</v>
+        <v>60.2</v>
       </c>
       <c r="BW9">
         <v>100</v>
@@ -3221,7 +3221,7 @@
         <v>108</v>
       </c>
       <c r="CK9">
-        <v>471.2</v>
+        <v>414.9999999999999</v>
       </c>
       <c r="CL9" t="s">
         <v>108</v>
@@ -3230,10 +3230,10 @@
         <v>700</v>
       </c>
       <c r="CN9">
-        <v>67.31428571428572</v>
+        <v>59.28571428571428</v>
       </c>
       <c r="CO9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -3250,7 +3250,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>25</v>
@@ -3259,35 +3259,35 @@
         <v>7</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>5.5</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>25</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>25</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>25</v>
-      </c>
-      <c r="M10">
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <v>2.5</v>
-      </c>
-      <c r="O10">
-        <v>25</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>1.5</v>
-      </c>
       <c r="R10">
         <v>25</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>7</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U10">
         <v>25</v>
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10">
         <v>25</v>
@@ -3322,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD10">
         <v>25</v>
@@ -3331,7 +3331,7 @@
         <v>7</v>
       </c>
       <c r="AF10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG10">
         <v>25</v>
@@ -3340,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="AI10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>25</v>
@@ -3358,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="AO10">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AP10">
         <v>25</v>
@@ -3367,7 +3367,7 @@
         <v>7</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="AS10">
         <v>25</v>
@@ -3376,7 +3376,7 @@
         <v>7</v>
       </c>
       <c r="AU10">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AV10">
         <v>100</v>
@@ -3385,7 +3385,7 @@
         <v>30</v>
       </c>
       <c r="AX10">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AY10">
         <v>100</v>
@@ -3394,70 +3394,70 @@
         <v>30</v>
       </c>
       <c r="BA10">
+        <v>16</v>
+      </c>
+      <c r="BB10">
+        <v>100</v>
+      </c>
+      <c r="BC10">
+        <v>30</v>
+      </c>
+      <c r="BD10">
+        <v>7</v>
+      </c>
+      <c r="BE10">
+        <v>100</v>
+      </c>
+      <c r="BF10">
+        <v>30</v>
+      </c>
+      <c r="BG10">
+        <v>15</v>
+      </c>
+      <c r="BH10">
+        <v>100</v>
+      </c>
+      <c r="BI10">
+        <v>30</v>
+      </c>
+      <c r="BJ10">
         <v>9</v>
       </c>
-      <c r="BB10">
-        <v>100</v>
-      </c>
-      <c r="BC10">
-        <v>30</v>
-      </c>
-      <c r="BD10">
+      <c r="BK10">
+        <v>100</v>
+      </c>
+      <c r="BL10">
+        <v>30</v>
+      </c>
+      <c r="BM10">
+        <v>12</v>
+      </c>
+      <c r="BN10">
+        <v>100</v>
+      </c>
+      <c r="BO10">
+        <v>30</v>
+      </c>
+      <c r="BP10">
+        <v>2.8</v>
+      </c>
+      <c r="BQ10">
+        <v>18.8</v>
+      </c>
+      <c r="BR10">
+        <v>16.6</v>
+      </c>
+      <c r="BS10">
+        <v>7.6</v>
+      </c>
+      <c r="BT10">
         <v>14</v>
       </c>
-      <c r="BE10">
-        <v>100</v>
-      </c>
-      <c r="BF10">
-        <v>30</v>
-      </c>
-      <c r="BG10">
-        <v>17</v>
-      </c>
-      <c r="BH10">
-        <v>100</v>
-      </c>
-      <c r="BI10">
-        <v>30</v>
-      </c>
-      <c r="BJ10">
-        <v>8</v>
-      </c>
-      <c r="BK10">
-        <v>100</v>
-      </c>
-      <c r="BL10">
-        <v>30</v>
-      </c>
-      <c r="BM10">
-        <v>16</v>
-      </c>
-      <c r="BN10">
-        <v>100</v>
-      </c>
-      <c r="BO10">
-        <v>30</v>
-      </c>
-      <c r="BP10">
-        <v>15.4</v>
-      </c>
-      <c r="BQ10">
-        <v>22.8</v>
-      </c>
-      <c r="BR10">
-        <v>8</v>
-      </c>
-      <c r="BS10">
-        <v>12.4</v>
-      </c>
-      <c r="BT10">
-        <v>15</v>
-      </c>
       <c r="BU10">
-        <v>9.199999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="BV10">
-        <v>13.6</v>
+        <v>12.2</v>
       </c>
       <c r="BW10">
         <v>100</v>
@@ -3502,7 +3502,7 @@
         <v>109</v>
       </c>
       <c r="CK10">
-        <v>96.39999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="CL10" t="s">
         <v>109</v>
@@ -3511,10 +3511,10 @@
         <v>700</v>
       </c>
       <c r="CN10">
-        <v>13.77142857142857</v>
+        <v>11.91428571428571</v>
       </c>
       <c r="CO10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -3531,125 +3531,125 @@
         <v>12</v>
       </c>
       <c r="E11">
+        <v>17.5</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
         <v>21.5</v>
       </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>21</v>
-      </c>
-      <c r="I11">
-        <v>25</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11">
+      <c r="L11">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>15.5</v>
+      </c>
+      <c r="O11">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>17.5</v>
+      </c>
+      <c r="R11">
+        <v>25</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
         <v>18</v>
       </c>
-      <c r="L11">
-        <v>25</v>
-      </c>
-      <c r="M11">
-        <v>7</v>
-      </c>
-      <c r="N11">
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>24</v>
+      </c>
+      <c r="X11">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>15</v>
+      </c>
+      <c r="AA11">
+        <v>25</v>
+      </c>
+      <c r="AB11">
+        <v>7</v>
+      </c>
+      <c r="AC11">
+        <v>19</v>
+      </c>
+      <c r="AD11">
+        <v>25</v>
+      </c>
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AF11">
+        <v>13.5</v>
+      </c>
+      <c r="AG11">
+        <v>25</v>
+      </c>
+      <c r="AH11">
+        <v>7</v>
+      </c>
+      <c r="AI11">
+        <v>12</v>
+      </c>
+      <c r="AJ11">
+        <v>25</v>
+      </c>
+      <c r="AK11">
+        <v>7</v>
+      </c>
+      <c r="AL11">
+        <v>23</v>
+      </c>
+      <c r="AM11">
+        <v>25</v>
+      </c>
+      <c r="AN11">
+        <v>7</v>
+      </c>
+      <c r="AO11">
+        <v>21.5</v>
+      </c>
+      <c r="AP11">
+        <v>25</v>
+      </c>
+      <c r="AQ11">
+        <v>7</v>
+      </c>
+      <c r="AR11">
         <v>22</v>
       </c>
-      <c r="O11">
-        <v>25</v>
-      </c>
-      <c r="P11">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <v>18</v>
-      </c>
-      <c r="R11">
-        <v>25</v>
-      </c>
-      <c r="S11">
-        <v>7</v>
-      </c>
-      <c r="T11">
-        <v>15</v>
-      </c>
-      <c r="U11">
-        <v>25</v>
-      </c>
-      <c r="V11">
-        <v>7</v>
-      </c>
-      <c r="W11">
-        <v>10</v>
-      </c>
-      <c r="X11">
-        <v>25</v>
-      </c>
-      <c r="Y11">
-        <v>7</v>
-      </c>
-      <c r="Z11">
-        <v>20</v>
-      </c>
-      <c r="AA11">
-        <v>25</v>
-      </c>
-      <c r="AB11">
-        <v>7</v>
-      </c>
-      <c r="AC11">
-        <v>17</v>
-      </c>
-      <c r="AD11">
-        <v>25</v>
-      </c>
-      <c r="AE11">
-        <v>7</v>
-      </c>
-      <c r="AF11">
-        <v>18</v>
-      </c>
-      <c r="AG11">
-        <v>25</v>
-      </c>
-      <c r="AH11">
-        <v>7</v>
-      </c>
-      <c r="AI11">
-        <v>18.5</v>
-      </c>
-      <c r="AJ11">
-        <v>25</v>
-      </c>
-      <c r="AK11">
-        <v>7</v>
-      </c>
-      <c r="AL11">
-        <v>19.5</v>
-      </c>
-      <c r="AM11">
-        <v>25</v>
-      </c>
-      <c r="AN11">
-        <v>7</v>
-      </c>
-      <c r="AO11">
-        <v>18</v>
-      </c>
-      <c r="AP11">
-        <v>25</v>
-      </c>
-      <c r="AQ11">
-        <v>7</v>
-      </c>
-      <c r="AR11">
-        <v>8.5</v>
-      </c>
       <c r="AS11">
         <v>25</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>7</v>
       </c>
       <c r="AU11">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AV11">
         <v>100</v>
@@ -3666,7 +3666,7 @@
         <v>30</v>
       </c>
       <c r="AX11">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AY11">
         <v>100</v>
@@ -3675,7 +3675,7 @@
         <v>30</v>
       </c>
       <c r="BA11">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="BB11">
         <v>100</v>
@@ -3684,7 +3684,7 @@
         <v>30</v>
       </c>
       <c r="BD11">
-        <v>81</v>
+        <v>80.5</v>
       </c>
       <c r="BE11">
         <v>100</v>
@@ -3693,7 +3693,7 @@
         <v>30</v>
       </c>
       <c r="BG11">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="BH11">
         <v>100</v>
@@ -3702,7 +3702,7 @@
         <v>30</v>
       </c>
       <c r="BJ11">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="BK11">
         <v>100</v>
@@ -3711,7 +3711,7 @@
         <v>30</v>
       </c>
       <c r="BM11">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="BN11">
         <v>100</v>
@@ -3720,25 +3720,25 @@
         <v>30</v>
       </c>
       <c r="BP11">
-        <v>74.2</v>
+        <v>45</v>
       </c>
       <c r="BQ11">
-        <v>80</v>
+        <v>61.2</v>
       </c>
       <c r="BR11">
-        <v>64.40000000000001</v>
+        <v>62</v>
       </c>
       <c r="BS11">
-        <v>81</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="BT11">
-        <v>85.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="BU11">
-        <v>67.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="BV11">
-        <v>34.6</v>
+        <v>87.2</v>
       </c>
       <c r="BW11">
         <v>100</v>
@@ -3783,7 +3783,7 @@
         <v>108</v>
       </c>
       <c r="CK11">
-        <v>487.2</v>
+        <v>484.4</v>
       </c>
       <c r="CL11" t="s">
         <v>108</v>
@@ -3792,7 +3792,7 @@
         <v>700</v>
       </c>
       <c r="CN11">
-        <v>69.60000000000001</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="CO11">
         <v>3</v>
@@ -3812,89 +3812,89 @@
         <v>14</v>
       </c>
       <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>21.5</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>9.5</v>
+      </c>
+      <c r="R12">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>4.5</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>18</v>
+      </c>
+      <c r="X12">
+        <v>25</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
         <v>6.5</v>
       </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>8.5</v>
-      </c>
-      <c r="I12">
-        <v>25</v>
-      </c>
-      <c r="J12">
-        <v>7</v>
-      </c>
-      <c r="K12">
-        <v>13.5</v>
-      </c>
-      <c r="L12">
-        <v>25</v>
-      </c>
-      <c r="M12">
-        <v>7</v>
-      </c>
-      <c r="N12">
-        <v>12.5</v>
-      </c>
-      <c r="O12">
-        <v>25</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
+      <c r="AA12">
+        <v>25</v>
+      </c>
+      <c r="AB12">
+        <v>7</v>
+      </c>
+      <c r="AC12">
+        <v>11</v>
+      </c>
+      <c r="AD12">
+        <v>25</v>
+      </c>
+      <c r="AE12">
+        <v>7</v>
+      </c>
+      <c r="AF12">
         <v>10</v>
       </c>
-      <c r="R12">
-        <v>25</v>
-      </c>
-      <c r="S12">
-        <v>7</v>
-      </c>
-      <c r="T12">
-        <v>6.5</v>
-      </c>
-      <c r="U12">
-        <v>25</v>
-      </c>
-      <c r="V12">
-        <v>7</v>
-      </c>
-      <c r="W12">
-        <v>5</v>
-      </c>
-      <c r="X12">
-        <v>25</v>
-      </c>
-      <c r="Y12">
-        <v>7</v>
-      </c>
-      <c r="Z12">
-        <v>7.5</v>
-      </c>
-      <c r="AA12">
-        <v>25</v>
-      </c>
-      <c r="AB12">
-        <v>7</v>
-      </c>
-      <c r="AC12">
-        <v>8</v>
-      </c>
-      <c r="AD12">
-        <v>25</v>
-      </c>
-      <c r="AE12">
-        <v>7</v>
-      </c>
-      <c r="AF12">
-        <v>6</v>
-      </c>
       <c r="AG12">
         <v>25</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>7</v>
       </c>
       <c r="AI12">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AJ12">
         <v>25</v>
@@ -3911,26 +3911,26 @@
         <v>7</v>
       </c>
       <c r="AL12">
+        <v>9.5</v>
+      </c>
+      <c r="AM12">
+        <v>25</v>
+      </c>
+      <c r="AN12">
+        <v>7</v>
+      </c>
+      <c r="AO12">
+        <v>9</v>
+      </c>
+      <c r="AP12">
+        <v>25</v>
+      </c>
+      <c r="AQ12">
+        <v>7</v>
+      </c>
+      <c r="AR12">
         <v>14</v>
       </c>
-      <c r="AM12">
-        <v>25</v>
-      </c>
-      <c r="AN12">
-        <v>7</v>
-      </c>
-      <c r="AO12">
-        <v>8</v>
-      </c>
-      <c r="AP12">
-        <v>25</v>
-      </c>
-      <c r="AQ12">
-        <v>7</v>
-      </c>
-      <c r="AR12">
-        <v>3</v>
-      </c>
       <c r="AS12">
         <v>25</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>7</v>
       </c>
       <c r="AU12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AV12">
         <v>100</v>
@@ -3947,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="AX12">
-        <v>43</v>
+        <v>32.5</v>
       </c>
       <c r="AY12">
         <v>100</v>
@@ -3956,7 +3956,7 @@
         <v>30</v>
       </c>
       <c r="BA12">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="BB12">
         <v>100</v>
@@ -3974,7 +3974,7 @@
         <v>30</v>
       </c>
       <c r="BG12">
-        <v>47</v>
+        <v>30.5</v>
       </c>
       <c r="BH12">
         <v>100</v>
@@ -3983,43 +3983,43 @@
         <v>30</v>
       </c>
       <c r="BJ12">
+        <v>45</v>
+      </c>
+      <c r="BK12">
+        <v>100</v>
+      </c>
+      <c r="BL12">
+        <v>30</v>
+      </c>
+      <c r="BM12">
+        <v>63</v>
+      </c>
+      <c r="BN12">
+        <v>100</v>
+      </c>
+      <c r="BO12">
+        <v>30</v>
+      </c>
+      <c r="BP12">
+        <v>19</v>
+      </c>
+      <c r="BQ12">
+        <v>30.8</v>
+      </c>
+      <c r="BR12">
+        <v>38.2</v>
+      </c>
+      <c r="BS12">
         <v>34</v>
       </c>
-      <c r="BK12">
-        <v>100</v>
-      </c>
-      <c r="BL12">
-        <v>30</v>
-      </c>
-      <c r="BM12">
-        <v>23</v>
-      </c>
-      <c r="BN12">
-        <v>100</v>
-      </c>
-      <c r="BO12">
-        <v>30</v>
-      </c>
-      <c r="BP12">
-        <v>27.2</v>
-      </c>
-      <c r="BQ12">
-        <v>41</v>
-      </c>
-      <c r="BR12">
-        <v>33</v>
-      </c>
-      <c r="BS12">
-        <v>34.4</v>
-      </c>
       <c r="BT12">
-        <v>47.2</v>
+        <v>32</v>
       </c>
       <c r="BU12">
-        <v>33</v>
+        <v>41.4</v>
       </c>
       <c r="BV12">
-        <v>21.6</v>
+        <v>63.2</v>
       </c>
       <c r="BW12">
         <v>100</v>
@@ -4061,10 +4061,10 @@
         <v>108</v>
       </c>
       <c r="CJ12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CK12">
-        <v>237.4</v>
+        <v>258.6</v>
       </c>
       <c r="CL12" t="s">
         <v>108</v>
@@ -4073,7 +4073,7 @@
         <v>700</v>
       </c>
       <c r="CN12">
-        <v>33.91428571428571</v>
+        <v>36.94285714285714</v>
       </c>
       <c r="CO12">
         <v>8</v>
@@ -4093,7 +4093,7 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -4102,7 +4102,7 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>25</v>
@@ -4111,7 +4111,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L13">
         <v>25</v>
@@ -4129,7 +4129,7 @@
         <v>7</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>21.5</v>
       </c>
       <c r="R13">
         <v>25</v>
@@ -4138,7 +4138,7 @@
         <v>7</v>
       </c>
       <c r="T13">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="U13">
         <v>25</v>
@@ -4147,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="W13">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="X13">
         <v>25</v>
@@ -4156,7 +4156,7 @@
         <v>7</v>
       </c>
       <c r="Z13">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="AA13">
         <v>25</v>
@@ -4165,26 +4165,26 @@
         <v>7</v>
       </c>
       <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AD13">
+        <v>25</v>
+      </c>
+      <c r="AE13">
+        <v>7</v>
+      </c>
+      <c r="AF13">
+        <v>11</v>
+      </c>
+      <c r="AG13">
+        <v>25</v>
+      </c>
+      <c r="AH13">
+        <v>7</v>
+      </c>
+      <c r="AI13">
         <v>20</v>
       </c>
-      <c r="AD13">
-        <v>25</v>
-      </c>
-      <c r="AE13">
-        <v>7</v>
-      </c>
-      <c r="AF13">
-        <v>21</v>
-      </c>
-      <c r="AG13">
-        <v>25</v>
-      </c>
-      <c r="AH13">
-        <v>7</v>
-      </c>
-      <c r="AI13">
-        <v>22</v>
-      </c>
       <c r="AJ13">
         <v>25</v>
       </c>
@@ -4192,26 +4192,26 @@
         <v>7</v>
       </c>
       <c r="AL13">
+        <v>23.5</v>
+      </c>
+      <c r="AM13">
+        <v>25</v>
+      </c>
+      <c r="AN13">
+        <v>7</v>
+      </c>
+      <c r="AO13">
+        <v>23</v>
+      </c>
+      <c r="AP13">
+        <v>25</v>
+      </c>
+      <c r="AQ13">
+        <v>7</v>
+      </c>
+      <c r="AR13">
         <v>19.5</v>
       </c>
-      <c r="AM13">
-        <v>25</v>
-      </c>
-      <c r="AN13">
-        <v>7</v>
-      </c>
-      <c r="AO13">
-        <v>20</v>
-      </c>
-      <c r="AP13">
-        <v>25</v>
-      </c>
-      <c r="AQ13">
-        <v>7</v>
-      </c>
-      <c r="AR13">
-        <v>17.5</v>
-      </c>
       <c r="AS13">
         <v>25</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="AU13">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="AV13">
         <v>100</v>
@@ -4228,7 +4228,7 @@
         <v>30</v>
       </c>
       <c r="AX13">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="AY13">
         <v>100</v>
@@ -4237,7 +4237,7 @@
         <v>30</v>
       </c>
       <c r="BA13">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="BB13">
         <v>100</v>
@@ -4246,7 +4246,7 @@
         <v>30</v>
       </c>
       <c r="BD13">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BE13">
         <v>100</v>
@@ -4255,7 +4255,7 @@
         <v>30</v>
       </c>
       <c r="BG13">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="BH13">
         <v>100</v>
@@ -4264,17 +4264,17 @@
         <v>30</v>
       </c>
       <c r="BJ13">
+        <v>74</v>
+      </c>
+      <c r="BK13">
+        <v>100</v>
+      </c>
+      <c r="BL13">
+        <v>30</v>
+      </c>
+      <c r="BM13">
         <v>80</v>
       </c>
-      <c r="BK13">
-        <v>100</v>
-      </c>
-      <c r="BL13">
-        <v>30</v>
-      </c>
-      <c r="BM13">
-        <v>78</v>
-      </c>
       <c r="BN13">
         <v>100</v>
       </c>
@@ -4282,25 +4282,25 @@
         <v>30</v>
       </c>
       <c r="BP13">
-        <v>87.8</v>
+        <v>68.8</v>
       </c>
       <c r="BQ13">
-        <v>83.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="BR13">
-        <v>69.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="BS13">
-        <v>84</v>
+        <v>84.8</v>
       </c>
       <c r="BT13">
-        <v>82.59999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="BU13">
-        <v>78.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="BV13">
-        <v>79</v>
+        <v>80.8</v>
       </c>
       <c r="BW13">
         <v>100</v>
@@ -4345,7 +4345,7 @@
         <v>108</v>
       </c>
       <c r="CK13">
-        <v>565</v>
+        <v>539.1999999999999</v>
       </c>
       <c r="CL13" t="s">
         <v>108</v>
@@ -4354,10 +4354,10 @@
         <v>700</v>
       </c>
       <c r="CN13">
-        <v>80.71428571428572</v>
+        <v>77.02857142857142</v>
       </c>
       <c r="CO13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:93">
@@ -4374,7 +4374,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -4383,7 +4383,7 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -4392,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>25</v>
@@ -4401,7 +4401,7 @@
         <v>7</v>
       </c>
       <c r="N14">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>25</v>
@@ -4410,70 +4410,70 @@
         <v>7</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>25</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>25</v>
+      </c>
+      <c r="AB14">
+        <v>7</v>
+      </c>
+      <c r="AC14">
+        <v>4</v>
+      </c>
+      <c r="AD14">
+        <v>25</v>
+      </c>
+      <c r="AE14">
+        <v>7</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>25</v>
+      </c>
+      <c r="AH14">
+        <v>7</v>
+      </c>
+      <c r="AI14">
+        <v>2</v>
+      </c>
+      <c r="AJ14">
+        <v>25</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14">
         <v>2.5</v>
-      </c>
-      <c r="R14">
-        <v>25</v>
-      </c>
-      <c r="S14">
-        <v>7</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>25</v>
-      </c>
-      <c r="V14">
-        <v>7</v>
-      </c>
-      <c r="W14">
-        <v>4</v>
-      </c>
-      <c r="X14">
-        <v>25</v>
-      </c>
-      <c r="Y14">
-        <v>7</v>
-      </c>
-      <c r="Z14">
-        <v>9</v>
-      </c>
-      <c r="AA14">
-        <v>25</v>
-      </c>
-      <c r="AB14">
-        <v>7</v>
-      </c>
-      <c r="AC14">
-        <v>14</v>
-      </c>
-      <c r="AD14">
-        <v>25</v>
-      </c>
-      <c r="AE14">
-        <v>7</v>
-      </c>
-      <c r="AF14">
-        <v>4</v>
-      </c>
-      <c r="AG14">
-        <v>25</v>
-      </c>
-      <c r="AH14">
-        <v>7</v>
-      </c>
-      <c r="AI14">
-        <v>6</v>
-      </c>
-      <c r="AJ14">
-        <v>25</v>
-      </c>
-      <c r="AK14">
-        <v>7</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
       </c>
       <c r="AM14">
         <v>25</v>
@@ -4491,7 +4491,7 @@
         <v>7</v>
       </c>
       <c r="AR14">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <v>25</v>
@@ -4500,7 +4500,7 @@
         <v>7</v>
       </c>
       <c r="AU14">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AV14">
         <v>100</v>
@@ -4509,7 +4509,7 @@
         <v>30</v>
       </c>
       <c r="AX14">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AY14">
         <v>100</v>
@@ -4518,7 +4518,7 @@
         <v>30</v>
       </c>
       <c r="BA14">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="BB14">
         <v>100</v>
@@ -4527,7 +4527,7 @@
         <v>30</v>
       </c>
       <c r="BD14">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="BE14">
         <v>100</v>
@@ -4536,7 +4536,7 @@
         <v>30</v>
       </c>
       <c r="BG14">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="BH14">
         <v>100</v>
@@ -4545,7 +4545,7 @@
         <v>30</v>
       </c>
       <c r="BJ14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BK14">
         <v>100</v>
@@ -4554,7 +4554,7 @@
         <v>30</v>
       </c>
       <c r="BM14">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BN14">
         <v>100</v>
@@ -4563,25 +4563,25 @@
         <v>30</v>
       </c>
       <c r="BP14">
-        <v>35.4</v>
+        <v>8</v>
       </c>
       <c r="BQ14">
-        <v>50.8</v>
+        <v>27.2</v>
       </c>
       <c r="BR14">
-        <v>36</v>
+        <v>21.6</v>
       </c>
       <c r="BS14">
-        <v>45</v>
+        <v>25.6</v>
       </c>
       <c r="BT14">
-        <v>15.4</v>
+        <v>25</v>
       </c>
       <c r="BU14">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="BV14">
-        <v>19.8</v>
+        <v>12</v>
       </c>
       <c r="BW14">
         <v>100</v>
@@ -4605,16 +4605,16 @@
         <v>100</v>
       </c>
       <c r="CD14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CE14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CF14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CG14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CH14" t="s">
         <v>109</v>
@@ -4626,19 +4626,19 @@
         <v>109</v>
       </c>
       <c r="CK14">
-        <v>224</v>
+        <v>140.6</v>
       </c>
       <c r="CL14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CM14">
         <v>700</v>
       </c>
       <c r="CN14">
-        <v>32</v>
+        <v>20.08571428571429</v>
       </c>
       <c r="CO14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Class_VIII/Hindi/Result.xlsx
+++ b/Class_VIII/Hindi/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="105">
   <si>
     <t>Student Name</t>
   </si>
@@ -91,15 +91,6 @@
     <t>FA-I_Science_pass</t>
   </si>
   <si>
-    <t>FA-I_Assamese</t>
-  </si>
-  <si>
-    <t>FA-I_Assamese_total</t>
-  </si>
-  <si>
-    <t>FA-I_Assamese_pass</t>
-  </si>
-  <si>
     <t>FA-II_Maths</t>
   </si>
   <si>
@@ -163,15 +154,6 @@
     <t>FA-II_Science_pass</t>
   </si>
   <si>
-    <t>FA-II_Assamese</t>
-  </si>
-  <si>
-    <t>FA-II_Assamese_total</t>
-  </si>
-  <si>
-    <t>FA-II_Assamese_pass</t>
-  </si>
-  <si>
     <t>HY_Maths</t>
   </si>
   <si>
@@ -235,15 +217,6 @@
     <t>HY_Science_pass</t>
   </si>
   <si>
-    <t>HY_Assamese</t>
-  </si>
-  <si>
-    <t>HY_Assamese_total</t>
-  </si>
-  <si>
-    <t>HY_Assamese_pass</t>
-  </si>
-  <si>
     <t>Weightage Maths</t>
   </si>
   <si>
@@ -265,9 +238,6 @@
     <t>Weightage Science</t>
   </si>
   <si>
-    <t>Weightage Assamese</t>
-  </si>
-  <si>
     <t>Weightage Maths total</t>
   </si>
   <si>
@@ -289,9 +259,6 @@
     <t>Weightage Science total</t>
   </si>
   <si>
-    <t>Weightage Assamese total</t>
-  </si>
-  <si>
     <t>Result Maths</t>
   </si>
   <si>
@@ -313,9 +280,6 @@
     <t>Result Science</t>
   </si>
   <si>
-    <t>Result Assamese</t>
-  </si>
-  <si>
     <t>Total Weightage</t>
   </si>
   <si>
@@ -353,9 +317,6 @@
   </si>
   <si>
     <t>Nakul Sha</t>
-  </si>
-  <si>
-    <t>Bitop jyoti Sarma</t>
   </si>
   <si>
     <t>VIII</t>
@@ -725,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DA10"/>
+  <dimension ref="A1:CO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:105">
+    <row r="1" spans="1:93">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,52 +972,16 @@
       <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
+      <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="C2" t="s">
         <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:105">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1125,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA2">
         <v>25</v>
@@ -1134,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="AC2">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AD2">
         <v>25</v>
@@ -1143,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="AF2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG2">
         <v>25</v>
@@ -1152,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="AI2">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ2">
         <v>25</v>
@@ -1161,7 +1086,7 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>14.5</v>
+        <v>21.5</v>
       </c>
       <c r="AM2">
         <v>25</v>
@@ -1170,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="AP2">
         <v>25</v>
@@ -1179,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="AR2">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="AS2">
         <v>25</v>
@@ -1188,25 +1113,25 @@
         <v>7</v>
       </c>
       <c r="AU2">
-        <v>8.5</v>
+        <v>76</v>
       </c>
       <c r="AV2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AW2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AY2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AZ2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BA2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BB2">
         <v>100</v>
@@ -1215,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="BD2">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="BE2">
         <v>100</v>
@@ -1224,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="BG2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="BH2">
         <v>100</v>
@@ -1233,7 +1158,7 @@
         <v>30</v>
       </c>
       <c r="BJ2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="BK2">
         <v>100</v>
@@ -1242,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="BM2">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="BN2">
         <v>100</v>
@@ -1251,129 +1176,93 @@
         <v>30</v>
       </c>
       <c r="BP2">
-        <v>65</v>
+        <v>73.2</v>
       </c>
       <c r="BQ2">
-        <v>100</v>
+        <v>69.2</v>
       </c>
       <c r="BR2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="BS2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BT2">
-        <v>100</v>
+        <v>75.8</v>
       </c>
       <c r="BU2">
-        <v>30</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="BW2">
         <v>100</v>
       </c>
       <c r="BX2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="BY2">
-        <v>73.2</v>
+        <v>100</v>
       </c>
       <c r="BZ2">
-        <v>69.2</v>
+        <v>100</v>
       </c>
       <c r="CA2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="CB2">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="CC2">
-        <v>75.8</v>
-      </c>
-      <c r="CD2">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="CE2">
-        <v>57.8</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>100</v>
-      </c>
-      <c r="CH2">
-        <v>100</v>
-      </c>
-      <c r="CI2">
-        <v>100</v>
-      </c>
-      <c r="CJ2">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>103</v>
       </c>
       <c r="CK2">
-        <v>100</v>
-      </c>
-      <c r="CL2">
-        <v>100</v>
+        <v>467.4</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>103</v>
       </c>
       <c r="CM2">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="CN2">
-        <v>100</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW2">
-        <v>467.4</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CY2">
-        <v>800</v>
-      </c>
-      <c r="CZ2">
-        <v>58.425</v>
-      </c>
-      <c r="DA2">
+        <v>66.77142857142859</v>
+      </c>
+      <c r="CO2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:105">
+    <row r="3" spans="1:93">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1442,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA3">
         <v>25</v>
@@ -1451,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="AC3">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AD3">
         <v>25</v>
@@ -1460,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="AF3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG3">
         <v>25</v>
@@ -1469,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="AI3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ3">
         <v>25</v>
@@ -1478,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="AL3">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AM3">
         <v>25</v>
@@ -1487,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="AO3">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AP3">
         <v>25</v>
@@ -1496,7 +1385,7 @@
         <v>7</v>
       </c>
       <c r="AR3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AS3">
         <v>25</v>
@@ -1505,25 +1394,25 @@
         <v>7</v>
       </c>
       <c r="AU3">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="AV3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AW3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AY3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AZ3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BA3">
-        <v>67</v>
+        <v>45.5</v>
       </c>
       <c r="BB3">
         <v>100</v>
@@ -1532,35 +1421,35 @@
         <v>30</v>
       </c>
       <c r="BD3">
+        <v>61</v>
+      </c>
+      <c r="BE3">
+        <v>100</v>
+      </c>
+      <c r="BF3">
+        <v>30</v>
+      </c>
+      <c r="BG3">
+        <v>44</v>
+      </c>
+      <c r="BH3">
+        <v>100</v>
+      </c>
+      <c r="BI3">
+        <v>30</v>
+      </c>
+      <c r="BJ3">
+        <v>42</v>
+      </c>
+      <c r="BK3">
+        <v>100</v>
+      </c>
+      <c r="BL3">
+        <v>30</v>
+      </c>
+      <c r="BM3">
         <v>40</v>
       </c>
-      <c r="BE3">
-        <v>100</v>
-      </c>
-      <c r="BF3">
-        <v>30</v>
-      </c>
-      <c r="BG3">
-        <v>45.5</v>
-      </c>
-      <c r="BH3">
-        <v>100</v>
-      </c>
-      <c r="BI3">
-        <v>30</v>
-      </c>
-      <c r="BJ3">
-        <v>61</v>
-      </c>
-      <c r="BK3">
-        <v>100</v>
-      </c>
-      <c r="BL3">
-        <v>30</v>
-      </c>
-      <c r="BM3">
-        <v>44</v>
-      </c>
       <c r="BN3">
         <v>100</v>
       </c>
@@ -1568,129 +1457,93 @@
         <v>30</v>
       </c>
       <c r="BP3">
-        <v>42</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="BQ3">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="BR3">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="BS3">
-        <v>40</v>
+        <v>56.8</v>
       </c>
       <c r="BT3">
-        <v>100</v>
+        <v>44.8</v>
       </c>
       <c r="BU3">
-        <v>30</v>
+        <v>41.6</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="BW3">
         <v>100</v>
       </c>
       <c r="BX3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="BY3">
-        <v>64.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="BZ3">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="CA3">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="CB3">
-        <v>56.8</v>
+        <v>100</v>
       </c>
       <c r="CC3">
-        <v>44.8</v>
-      </c>
-      <c r="CD3">
-        <v>41.6</v>
-      </c>
-      <c r="CE3">
-        <v>40.4</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>100</v>
-      </c>
-      <c r="CH3">
-        <v>100</v>
-      </c>
-      <c r="CI3">
-        <v>100</v>
-      </c>
-      <c r="CJ3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>103</v>
       </c>
       <c r="CK3">
-        <v>100</v>
-      </c>
-      <c r="CL3">
-        <v>100</v>
+        <v>337.2</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>103</v>
       </c>
       <c r="CM3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="CN3">
-        <v>100</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW3">
-        <v>337.2</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CY3">
-        <v>800</v>
-      </c>
-      <c r="CZ3">
-        <v>42.15</v>
-      </c>
-      <c r="DA3">
+        <v>48.17142857142857</v>
+      </c>
+      <c r="CO3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:105">
+    <row r="4" spans="1:93">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1759,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA4">
         <v>25</v>
@@ -1768,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD4">
         <v>25</v>
@@ -1777,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="AF4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AG4">
         <v>25</v>
@@ -1786,35 +1639,35 @@
         <v>7</v>
       </c>
       <c r="AI4">
+        <v>12</v>
+      </c>
+      <c r="AJ4">
+        <v>25</v>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AL4">
+        <v>15.5</v>
+      </c>
+      <c r="AM4">
+        <v>25</v>
+      </c>
+      <c r="AN4">
+        <v>7</v>
+      </c>
+      <c r="AO4">
+        <v>15</v>
+      </c>
+      <c r="AP4">
+        <v>25</v>
+      </c>
+      <c r="AQ4">
+        <v>7</v>
+      </c>
+      <c r="AR4">
         <v>5</v>
       </c>
-      <c r="AJ4">
-        <v>25</v>
-      </c>
-      <c r="AK4">
-        <v>7</v>
-      </c>
-      <c r="AL4">
-        <v>12</v>
-      </c>
-      <c r="AM4">
-        <v>25</v>
-      </c>
-      <c r="AN4">
-        <v>7</v>
-      </c>
-      <c r="AO4">
-        <v>15.5</v>
-      </c>
-      <c r="AP4">
-        <v>25</v>
-      </c>
-      <c r="AQ4">
-        <v>7</v>
-      </c>
-      <c r="AR4">
-        <v>15</v>
-      </c>
       <c r="AS4">
         <v>25</v>
       </c>
@@ -1822,25 +1675,25 @@
         <v>7</v>
       </c>
       <c r="AU4">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AV4">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AW4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AY4">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AZ4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BA4">
-        <v>48</v>
+        <v>45.5</v>
       </c>
       <c r="BB4">
         <v>100</v>
@@ -1849,7 +1702,7 @@
         <v>30</v>
       </c>
       <c r="BD4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BE4">
         <v>100</v>
@@ -1858,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="BG4">
-        <v>45.5</v>
+        <v>49</v>
       </c>
       <c r="BH4">
         <v>100</v>
@@ -1867,7 +1720,7 @@
         <v>30</v>
       </c>
       <c r="BJ4">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="BK4">
         <v>100</v>
@@ -1876,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="BM4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="BN4">
         <v>100</v>
@@ -1885,129 +1738,93 @@
         <v>30</v>
       </c>
       <c r="BP4">
+        <v>46</v>
+      </c>
+      <c r="BQ4">
+        <v>49.6</v>
+      </c>
+      <c r="BR4">
+        <v>41.8</v>
+      </c>
+      <c r="BS4">
+        <v>48.2</v>
+      </c>
+      <c r="BT4">
+        <v>49.4</v>
+      </c>
+      <c r="BU4">
         <v>44</v>
       </c>
-      <c r="BQ4">
-        <v>100</v>
-      </c>
-      <c r="BR4">
-        <v>30</v>
-      </c>
-      <c r="BS4">
-        <v>43</v>
-      </c>
-      <c r="BT4">
-        <v>100</v>
-      </c>
-      <c r="BU4">
-        <v>30</v>
-      </c>
       <c r="BV4">
-        <v>0</v>
+        <v>39.2</v>
       </c>
       <c r="BW4">
         <v>100</v>
       </c>
       <c r="BX4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="BY4">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="BZ4">
-        <v>49.6</v>
+        <v>100</v>
       </c>
       <c r="CA4">
-        <v>41.8</v>
+        <v>100</v>
       </c>
       <c r="CB4">
-        <v>48.2</v>
+        <v>100</v>
       </c>
       <c r="CC4">
-        <v>49.4</v>
-      </c>
-      <c r="CD4">
-        <v>44</v>
-      </c>
-      <c r="CE4">
-        <v>39.2</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>100</v>
-      </c>
-      <c r="CH4">
-        <v>100</v>
-      </c>
-      <c r="CI4">
-        <v>100</v>
-      </c>
-      <c r="CJ4">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>103</v>
       </c>
       <c r="CK4">
-        <v>100</v>
-      </c>
-      <c r="CL4">
-        <v>100</v>
+        <v>318.2</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>103</v>
       </c>
       <c r="CM4">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="CN4">
-        <v>100</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW4">
-        <v>318.2</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CY4">
-        <v>800</v>
-      </c>
-      <c r="CZ4">
-        <v>39.775</v>
-      </c>
-      <c r="DA4">
+        <v>45.45714285714286</v>
+      </c>
+      <c r="CO4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:105">
+    <row r="5" spans="1:93">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2076,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA5">
         <v>25</v>
@@ -2085,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="AC5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AD5">
         <v>25</v>
@@ -2094,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AF5">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="AG5">
         <v>25</v>
@@ -2103,35 +1920,35 @@
         <v>7</v>
       </c>
       <c r="AI5">
+        <v>15</v>
+      </c>
+      <c r="AJ5">
+        <v>25</v>
+      </c>
+      <c r="AK5">
+        <v>7</v>
+      </c>
+      <c r="AL5">
+        <v>8.5</v>
+      </c>
+      <c r="AM5">
+        <v>25</v>
+      </c>
+      <c r="AN5">
+        <v>7</v>
+      </c>
+      <c r="AO5">
+        <v>8</v>
+      </c>
+      <c r="AP5">
+        <v>25</v>
+      </c>
+      <c r="AQ5">
+        <v>7</v>
+      </c>
+      <c r="AR5">
         <v>3.5</v>
       </c>
-      <c r="AJ5">
-        <v>25</v>
-      </c>
-      <c r="AK5">
-        <v>7</v>
-      </c>
-      <c r="AL5">
-        <v>15</v>
-      </c>
-      <c r="AM5">
-        <v>25</v>
-      </c>
-      <c r="AN5">
-        <v>7</v>
-      </c>
-      <c r="AO5">
-        <v>8.5</v>
-      </c>
-      <c r="AP5">
-        <v>25</v>
-      </c>
-      <c r="AQ5">
-        <v>7</v>
-      </c>
-      <c r="AR5">
-        <v>8</v>
-      </c>
       <c r="AS5">
         <v>25</v>
       </c>
@@ -2139,25 +1956,25 @@
         <v>7</v>
       </c>
       <c r="AU5">
-        <v>3.5</v>
+        <v>51</v>
       </c>
       <c r="AV5">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AW5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AY5">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AZ5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BA5">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="BB5">
         <v>100</v>
@@ -2166,7 +1983,7 @@
         <v>30</v>
       </c>
       <c r="BD5">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="BE5">
         <v>100</v>
@@ -2175,7 +1992,7 @@
         <v>30</v>
       </c>
       <c r="BG5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BH5">
         <v>100</v>
@@ -2184,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="BJ5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BK5">
         <v>100</v>
@@ -2202,129 +2019,93 @@
         <v>30</v>
       </c>
       <c r="BP5">
-        <v>32</v>
+        <v>54.4</v>
       </c>
       <c r="BQ5">
-        <v>100</v>
+        <v>40.2</v>
       </c>
       <c r="BR5">
-        <v>30</v>
+        <v>40.8</v>
       </c>
       <c r="BS5">
-        <v>40</v>
+        <v>38.4</v>
       </c>
       <c r="BT5">
-        <v>100</v>
+        <v>41.2</v>
       </c>
       <c r="BU5">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BW5">
         <v>100</v>
       </c>
       <c r="BX5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="BY5">
-        <v>54.4</v>
+        <v>100</v>
       </c>
       <c r="BZ5">
-        <v>40.2</v>
+        <v>100</v>
       </c>
       <c r="CA5">
-        <v>40.8</v>
+        <v>100</v>
       </c>
       <c r="CB5">
-        <v>38.4</v>
+        <v>100</v>
       </c>
       <c r="CC5">
-        <v>41.2</v>
-      </c>
-      <c r="CD5">
-        <v>31.2</v>
-      </c>
-      <c r="CE5">
-        <v>38</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>100</v>
-      </c>
-      <c r="CH5">
-        <v>100</v>
-      </c>
-      <c r="CI5">
-        <v>100</v>
-      </c>
-      <c r="CJ5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>103</v>
       </c>
       <c r="CK5">
-        <v>100</v>
-      </c>
-      <c r="CL5">
-        <v>100</v>
+        <v>284.2</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>103</v>
       </c>
       <c r="CM5">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="CN5">
-        <v>100</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>116</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>116</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>116</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>116</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>116</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>116</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW5">
-        <v>284.2</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>116</v>
-      </c>
-      <c r="CY5">
-        <v>800</v>
-      </c>
-      <c r="CZ5">
-        <v>35.525</v>
-      </c>
-      <c r="DA5">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="CO5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:105">
+    <row r="6" spans="1:93">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2393,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA6">
         <v>25</v>
@@ -2402,7 +2183,7 @@
         <v>7</v>
       </c>
       <c r="AC6">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AD6">
         <v>25</v>
@@ -2429,7 +2210,7 @@
         <v>7</v>
       </c>
       <c r="AL6">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AM6">
         <v>25</v>
@@ -2438,7 +2219,7 @@
         <v>7</v>
       </c>
       <c r="AO6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP6">
         <v>25</v>
@@ -2447,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="AR6">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="AS6">
         <v>25</v>
@@ -2456,25 +2237,25 @@
         <v>7</v>
       </c>
       <c r="AU6">
-        <v>0.5</v>
+        <v>33</v>
       </c>
       <c r="AV6">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AW6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AY6">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AZ6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BA6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BB6">
         <v>100</v>
@@ -2483,7 +2264,7 @@
         <v>30</v>
       </c>
       <c r="BD6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BE6">
         <v>100</v>
@@ -2492,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="BG6">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BH6">
         <v>100</v>
@@ -2501,7 +2282,7 @@
         <v>30</v>
       </c>
       <c r="BJ6">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="BK6">
         <v>100</v>
@@ -2510,7 +2291,7 @@
         <v>30</v>
       </c>
       <c r="BM6">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="BN6">
         <v>100</v>
@@ -2519,129 +2300,93 @@
         <v>30</v>
       </c>
       <c r="BP6">
-        <v>24</v>
+        <v>29.2</v>
       </c>
       <c r="BQ6">
-        <v>100</v>
+        <v>25.2</v>
       </c>
       <c r="BR6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BS6">
-        <v>32</v>
+        <v>27.2</v>
       </c>
       <c r="BT6">
-        <v>100</v>
+        <v>37.6</v>
       </c>
       <c r="BU6">
-        <v>30</v>
+        <v>21.6</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="BW6">
         <v>100</v>
       </c>
       <c r="BX6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="BY6">
-        <v>29.2</v>
+        <v>100</v>
       </c>
       <c r="BZ6">
-        <v>25.2</v>
+        <v>100</v>
       </c>
       <c r="CA6">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="CB6">
-        <v>27.2</v>
+        <v>100</v>
       </c>
       <c r="CC6">
-        <v>37.6</v>
-      </c>
-      <c r="CD6">
-        <v>21.6</v>
-      </c>
-      <c r="CE6">
-        <v>27.8</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>100</v>
-      </c>
-      <c r="CH6">
-        <v>100</v>
-      </c>
-      <c r="CI6">
-        <v>100</v>
-      </c>
-      <c r="CJ6">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>104</v>
       </c>
       <c r="CK6">
-        <v>100</v>
-      </c>
-      <c r="CL6">
-        <v>100</v>
+        <v>200.6</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>104</v>
       </c>
       <c r="CM6">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="CN6">
-        <v>100</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>116</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW6">
-        <v>200.6</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY6">
-        <v>800</v>
-      </c>
-      <c r="CZ6">
-        <v>25.075</v>
-      </c>
-      <c r="DA6">
-        <v>6</v>
+        <v>28.65714285714286</v>
+      </c>
+      <c r="CO6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:105">
+    <row r="7" spans="1:93">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2719,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD7">
         <v>25</v>
@@ -2728,7 +2473,7 @@
         <v>7</v>
       </c>
       <c r="AF7">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="AG7">
         <v>25</v>
@@ -2737,26 +2482,26 @@
         <v>7</v>
       </c>
       <c r="AI7">
+        <v>16</v>
+      </c>
+      <c r="AJ7">
+        <v>25</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
+        <v>5</v>
+      </c>
+      <c r="AM7">
+        <v>25</v>
+      </c>
+      <c r="AN7">
+        <v>7</v>
+      </c>
+      <c r="AO7">
         <v>4</v>
       </c>
-      <c r="AJ7">
-        <v>25</v>
-      </c>
-      <c r="AK7">
-        <v>7</v>
-      </c>
-      <c r="AL7">
-        <v>16</v>
-      </c>
-      <c r="AM7">
-        <v>25</v>
-      </c>
-      <c r="AN7">
-        <v>7</v>
-      </c>
-      <c r="AO7">
-        <v>5</v>
-      </c>
       <c r="AP7">
         <v>25</v>
       </c>
@@ -2764,7 +2509,7 @@
         <v>7</v>
       </c>
       <c r="AR7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS7">
         <v>25</v>
@@ -2773,25 +2518,25 @@
         <v>7</v>
       </c>
       <c r="AU7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AV7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AW7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AY7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AZ7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BA7">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="BB7">
         <v>100</v>
@@ -2800,7 +2545,7 @@
         <v>30</v>
       </c>
       <c r="BD7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="BE7">
         <v>100</v>
@@ -2809,7 +2554,7 @@
         <v>30</v>
       </c>
       <c r="BG7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="BH7">
         <v>100</v>
@@ -2818,7 +2563,7 @@
         <v>30</v>
       </c>
       <c r="BJ7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BK7">
         <v>100</v>
@@ -2827,7 +2572,7 @@
         <v>30</v>
       </c>
       <c r="BM7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="BN7">
         <v>100</v>
@@ -2836,129 +2581,93 @@
         <v>30</v>
       </c>
       <c r="BP7">
-        <v>22</v>
+        <v>12.8</v>
       </c>
       <c r="BQ7">
-        <v>100</v>
+        <v>18.8</v>
       </c>
       <c r="BR7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BS7">
-        <v>34</v>
+        <v>34.8</v>
       </c>
       <c r="BT7">
-        <v>100</v>
+        <v>36.2</v>
       </c>
       <c r="BU7">
-        <v>30</v>
+        <v>20.4</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BW7">
         <v>100</v>
       </c>
       <c r="BX7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="BY7">
-        <v>12.8</v>
+        <v>100</v>
       </c>
       <c r="BZ7">
-        <v>18.8</v>
+        <v>100</v>
       </c>
       <c r="CA7">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="CB7">
-        <v>34.8</v>
+        <v>100</v>
       </c>
       <c r="CC7">
-        <v>36.2</v>
-      </c>
-      <c r="CD7">
-        <v>20.4</v>
-      </c>
-      <c r="CE7">
-        <v>30</v>
-      </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
-      <c r="CG7">
-        <v>100</v>
-      </c>
-      <c r="CH7">
-        <v>100</v>
-      </c>
-      <c r="CI7">
-        <v>100</v>
-      </c>
-      <c r="CJ7">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>103</v>
       </c>
       <c r="CK7">
-        <v>100</v>
-      </c>
-      <c r="CL7">
-        <v>100</v>
+        <v>186</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>104</v>
       </c>
       <c r="CM7">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="CN7">
-        <v>100</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>117</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CR7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>117</v>
-      </c>
-      <c r="CU7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW7">
-        <v>186</v>
-      </c>
-      <c r="CX7" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY7">
-        <v>800</v>
-      </c>
-      <c r="CZ7">
-        <v>23.25</v>
-      </c>
-      <c r="DA7">
-        <v>7</v>
+        <v>26.57142857142857</v>
+      </c>
+      <c r="CO7">
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:105">
+    <row r="8" spans="1:93">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -3027,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AA8">
         <v>25</v>
@@ -3036,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="AC8">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="AD8">
         <v>25</v>
@@ -3045,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="AF8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG8">
         <v>25</v>
@@ -3054,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="AI8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ8">
         <v>25</v>
@@ -3063,7 +2772,7 @@
         <v>7</v>
       </c>
       <c r="AL8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AM8">
         <v>25</v>
@@ -3081,7 +2790,7 @@
         <v>7</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>25</v>
@@ -3090,25 +2799,25 @@
         <v>7</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV8">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AW8">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY8">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AZ8">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BA8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BB8">
         <v>100</v>
@@ -3117,7 +2826,7 @@
         <v>30</v>
       </c>
       <c r="BD8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="BE8">
         <v>100</v>
@@ -3126,7 +2835,7 @@
         <v>30</v>
       </c>
       <c r="BG8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BH8">
         <v>100</v>
@@ -3135,7 +2844,7 @@
         <v>30</v>
       </c>
       <c r="BJ8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BK8">
         <v>100</v>
@@ -3144,7 +2853,7 @@
         <v>30</v>
       </c>
       <c r="BM8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BN8">
         <v>100</v>
@@ -3153,129 +2862,93 @@
         <v>30</v>
       </c>
       <c r="BP8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BQ8">
-        <v>100</v>
+        <v>12.4</v>
       </c>
       <c r="BR8">
-        <v>30</v>
+        <v>28.8</v>
       </c>
       <c r="BS8">
-        <v>20</v>
+        <v>27.2</v>
       </c>
       <c r="BT8">
-        <v>100</v>
+        <v>27.2</v>
       </c>
       <c r="BU8">
-        <v>30</v>
+        <v>16.8</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="BW8">
         <v>100</v>
       </c>
       <c r="BX8">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="BY8">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="BZ8">
-        <v>12.4</v>
+        <v>100</v>
       </c>
       <c r="CA8">
-        <v>28.8</v>
+        <v>100</v>
       </c>
       <c r="CB8">
-        <v>27.2</v>
+        <v>100</v>
       </c>
       <c r="CC8">
-        <v>27.2</v>
-      </c>
-      <c r="CD8">
-        <v>16.8</v>
-      </c>
-      <c r="CE8">
-        <v>16.2</v>
-      </c>
-      <c r="CF8">
-        <v>0</v>
-      </c>
-      <c r="CG8">
-        <v>100</v>
-      </c>
-      <c r="CH8">
-        <v>100</v>
-      </c>
-      <c r="CI8">
-        <v>100</v>
-      </c>
-      <c r="CJ8">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>104</v>
       </c>
       <c r="CK8">
-        <v>100</v>
-      </c>
-      <c r="CL8">
-        <v>100</v>
+        <v>154.6</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>104</v>
       </c>
       <c r="CM8">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="CN8">
-        <v>100</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CR8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CU8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW8">
-        <v>154.6</v>
-      </c>
-      <c r="CX8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY8">
-        <v>800</v>
-      </c>
-      <c r="CZ8">
-        <v>19.325</v>
-      </c>
-      <c r="DA8">
-        <v>8</v>
+        <v>22.08571428571428</v>
+      </c>
+      <c r="CO8">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:105">
+    <row r="9" spans="1:93">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -3344,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA9">
         <v>25</v>
@@ -3353,26 +3026,26 @@
         <v>7</v>
       </c>
       <c r="AC9">
+        <v>2.5</v>
+      </c>
+      <c r="AD9">
+        <v>25</v>
+      </c>
+      <c r="AE9">
+        <v>7</v>
+      </c>
+      <c r="AF9">
+        <v>1.5</v>
+      </c>
+      <c r="AG9">
+        <v>25</v>
+      </c>
+      <c r="AH9">
+        <v>7</v>
+      </c>
+      <c r="AI9">
         <v>4</v>
       </c>
-      <c r="AD9">
-        <v>25</v>
-      </c>
-      <c r="AE9">
-        <v>7</v>
-      </c>
-      <c r="AF9">
-        <v>2.5</v>
-      </c>
-      <c r="AG9">
-        <v>25</v>
-      </c>
-      <c r="AH9">
-        <v>7</v>
-      </c>
-      <c r="AI9">
-        <v>1.5</v>
-      </c>
       <c r="AJ9">
         <v>25</v>
       </c>
@@ -3380,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="AL9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM9">
         <v>25</v>
@@ -3389,7 +3062,7 @@
         <v>7</v>
       </c>
       <c r="AO9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP9">
         <v>25</v>
@@ -3398,7 +3071,7 @@
         <v>7</v>
       </c>
       <c r="AR9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS9">
         <v>25</v>
@@ -3407,25 +3080,25 @@
         <v>7</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AV9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AW9">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AY9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AZ9">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="BA9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BB9">
         <v>100</v>
@@ -3434,7 +3107,7 @@
         <v>30</v>
       </c>
       <c r="BD9">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="BE9">
         <v>100</v>
@@ -3443,7 +3116,7 @@
         <v>30</v>
       </c>
       <c r="BG9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BH9">
         <v>100</v>
@@ -3452,7 +3125,7 @@
         <v>30</v>
       </c>
       <c r="BJ9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="BK9">
         <v>100</v>
@@ -3461,7 +3134,7 @@
         <v>30</v>
       </c>
       <c r="BM9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="BN9">
         <v>100</v>
@@ -3470,435 +3143,82 @@
         <v>30</v>
       </c>
       <c r="BP9">
-        <v>12</v>
+        <v>22.8</v>
       </c>
       <c r="BQ9">
-        <v>100</v>
+        <v>12.2</v>
       </c>
       <c r="BR9">
-        <v>30</v>
+        <v>18.2</v>
       </c>
       <c r="BS9">
-        <v>16</v>
+        <v>28.4</v>
       </c>
       <c r="BT9">
-        <v>100</v>
+        <v>21.8</v>
       </c>
       <c r="BU9">
-        <v>30</v>
+        <v>11.2</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="BW9">
         <v>100</v>
       </c>
       <c r="BX9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="BY9">
-        <v>22.8</v>
+        <v>100</v>
       </c>
       <c r="BZ9">
-        <v>12.2</v>
+        <v>100</v>
       </c>
       <c r="CA9">
-        <v>18.2</v>
+        <v>100</v>
       </c>
       <c r="CB9">
-        <v>28.4</v>
+        <v>100</v>
       </c>
       <c r="CC9">
-        <v>21.8</v>
-      </c>
-      <c r="CD9">
-        <v>11.2</v>
-      </c>
-      <c r="CE9">
-        <v>13.8</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
-      </c>
-      <c r="CG9">
-        <v>100</v>
-      </c>
-      <c r="CH9">
-        <v>100</v>
-      </c>
-      <c r="CI9">
-        <v>100</v>
-      </c>
-      <c r="CJ9">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>104</v>
       </c>
       <c r="CK9">
-        <v>100</v>
-      </c>
-      <c r="CL9">
-        <v>100</v>
+        <v>128.4</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>104</v>
       </c>
       <c r="CM9">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="CN9">
-        <v>100</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>117</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ9" t="s">
-        <v>117</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>117</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>117</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>117</v>
-      </c>
-      <c r="CU9" t="s">
-        <v>117</v>
-      </c>
-      <c r="CV9" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW9">
-        <v>128.4</v>
-      </c>
-      <c r="CX9" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY9">
-        <v>800</v>
-      </c>
-      <c r="CZ9">
-        <v>16.05</v>
-      </c>
-      <c r="DA9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:105">
-      <c r="A10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>25</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>25</v>
-      </c>
-      <c r="M10">
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>25</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>25</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>25</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>25</v>
-      </c>
-      <c r="Y10">
-        <v>7</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>25</v>
-      </c>
-      <c r="AB10">
-        <v>7</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>25</v>
-      </c>
-      <c r="AE10">
-        <v>7</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>25</v>
-      </c>
-      <c r="AH10">
-        <v>7</v>
-      </c>
-      <c r="AI10">
-        <v>5.5</v>
-      </c>
-      <c r="AJ10">
-        <v>25</v>
-      </c>
-      <c r="AK10">
-        <v>7</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>25</v>
-      </c>
-      <c r="AN10">
-        <v>7</v>
-      </c>
-      <c r="AO10">
-        <v>9</v>
-      </c>
-      <c r="AP10">
-        <v>25</v>
-      </c>
-      <c r="AQ10">
-        <v>7</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>25</v>
-      </c>
-      <c r="AT10">
-        <v>7</v>
-      </c>
-      <c r="AU10">
-        <v>4</v>
-      </c>
-      <c r="AV10">
-        <v>25</v>
-      </c>
-      <c r="AW10">
-        <v>7</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>25</v>
-      </c>
-      <c r="AZ10">
-        <v>7</v>
-      </c>
-      <c r="BA10">
-        <v>36</v>
-      </c>
-      <c r="BB10">
-        <v>100</v>
-      </c>
-      <c r="BC10">
-        <v>30</v>
-      </c>
-      <c r="BD10">
-        <v>35</v>
-      </c>
-      <c r="BE10">
-        <v>100</v>
-      </c>
-      <c r="BF10">
-        <v>30</v>
-      </c>
-      <c r="BG10">
-        <v>44</v>
-      </c>
-      <c r="BH10">
-        <v>100</v>
-      </c>
-      <c r="BI10">
-        <v>30</v>
-      </c>
-      <c r="BJ10">
-        <v>42</v>
-      </c>
-      <c r="BK10">
-        <v>100</v>
-      </c>
-      <c r="BL10">
-        <v>30</v>
-      </c>
-      <c r="BM10">
-        <v>43</v>
-      </c>
-      <c r="BN10">
-        <v>100</v>
-      </c>
-      <c r="BO10">
-        <v>30</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>100</v>
-      </c>
-      <c r="BR10">
-        <v>30</v>
-      </c>
-      <c r="BS10">
-        <v>34</v>
-      </c>
-      <c r="BT10">
-        <v>100</v>
-      </c>
-      <c r="BU10">
-        <v>30</v>
-      </c>
-      <c r="BV10">
-        <v>16</v>
-      </c>
-      <c r="BW10">
-        <v>100</v>
-      </c>
-      <c r="BX10">
-        <v>30</v>
-      </c>
-      <c r="BY10">
-        <v>28.8</v>
-      </c>
-      <c r="BZ10">
-        <v>28</v>
-      </c>
-      <c r="CA10">
-        <v>37.4</v>
-      </c>
-      <c r="CB10">
-        <v>33.6</v>
-      </c>
-      <c r="CC10">
-        <v>38</v>
-      </c>
-      <c r="CD10">
-        <v>0</v>
-      </c>
-      <c r="CE10">
-        <v>28.8</v>
-      </c>
-      <c r="CF10">
-        <v>16</v>
-      </c>
-      <c r="CG10">
-        <v>100</v>
-      </c>
-      <c r="CH10">
-        <v>100</v>
-      </c>
-      <c r="CI10">
-        <v>100</v>
-      </c>
-      <c r="CJ10">
-        <v>100</v>
-      </c>
-      <c r="CK10">
-        <v>100</v>
-      </c>
-      <c r="CL10">
-        <v>100</v>
-      </c>
-      <c r="CM10">
-        <v>100</v>
-      </c>
-      <c r="CN10">
-        <v>100</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ10" t="s">
-        <v>116</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>116</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CU10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CV10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CW10">
-        <v>210.6</v>
-      </c>
-      <c r="CX10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY10">
-        <v>800</v>
-      </c>
-      <c r="CZ10">
-        <v>26.325</v>
-      </c>
-      <c r="DA10">
-        <v>5</v>
+        <v>18.34285714285715</v>
+      </c>
+      <c r="CO9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Class_VIII/Hindi/Result.xlsx
+++ b/Class_VIII/Hindi/Result.xlsx
@@ -28,256 +28,256 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>FA-I_Maths</t>
-  </si>
-  <si>
-    <t>FA-I_Maths_total</t>
-  </si>
-  <si>
-    <t>FA-I_Maths_pass</t>
-  </si>
-  <si>
-    <t>FA-I_English I</t>
-  </si>
-  <si>
-    <t>FA-I_English I_total</t>
-  </si>
-  <si>
-    <t>FA-I_English I_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Computer</t>
-  </si>
-  <si>
-    <t>FA-I_Computer_total</t>
-  </si>
-  <si>
-    <t>FA-I_Computer_pass</t>
-  </si>
-  <si>
-    <t>FA-I_English II</t>
-  </si>
-  <si>
-    <t>FA-I_English II_total</t>
-  </si>
-  <si>
-    <t>FA-I_English II_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Social Science</t>
-  </si>
-  <si>
-    <t>FA-I_Social Science_total</t>
-  </si>
-  <si>
-    <t>FA-I_Social Science_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Hindi</t>
-  </si>
-  <si>
-    <t>FA-I_Hindi_total</t>
-  </si>
-  <si>
-    <t>FA-I_Hindi_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Science</t>
-  </si>
-  <si>
-    <t>FA-I_Science_total</t>
-  </si>
-  <si>
-    <t>FA-I_Science_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Maths</t>
-  </si>
-  <si>
-    <t>FA-II_Maths_total</t>
-  </si>
-  <si>
-    <t>FA-II_Maths_pass</t>
-  </si>
-  <si>
-    <t>FA-II_English I</t>
-  </si>
-  <si>
-    <t>FA-II_English I_total</t>
-  </si>
-  <si>
-    <t>FA-II_English I_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Computer</t>
-  </si>
-  <si>
-    <t>FA-II_Computer_total</t>
-  </si>
-  <si>
-    <t>FA-II_Computer_pass</t>
-  </si>
-  <si>
-    <t>FA-II_English II</t>
-  </si>
-  <si>
-    <t>FA-II_English II_total</t>
-  </si>
-  <si>
-    <t>FA-II_English II_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Social Science</t>
-  </si>
-  <si>
-    <t>FA-II_Social Science_total</t>
-  </si>
-  <si>
-    <t>FA-II_Social Science_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Hindi</t>
-  </si>
-  <si>
-    <t>FA-II_Hindi_total</t>
-  </si>
-  <si>
-    <t>FA-II_Hindi_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Science</t>
-  </si>
-  <si>
-    <t>FA-II_Science_total</t>
-  </si>
-  <si>
-    <t>FA-II_Science_pass</t>
-  </si>
-  <si>
-    <t>HY_Maths</t>
-  </si>
-  <si>
-    <t>HY_Maths_total</t>
-  </si>
-  <si>
-    <t>HY_Maths_pass</t>
-  </si>
-  <si>
-    <t>HY_English I</t>
-  </si>
-  <si>
-    <t>HY_English I_total</t>
-  </si>
-  <si>
-    <t>HY_English I_pass</t>
-  </si>
-  <si>
-    <t>HY_Computer</t>
-  </si>
-  <si>
-    <t>HY_Computer_total</t>
-  </si>
-  <si>
-    <t>HY_Computer_pass</t>
-  </si>
-  <si>
-    <t>HY_English II</t>
-  </si>
-  <si>
-    <t>HY_English II_total</t>
-  </si>
-  <si>
-    <t>HY_English II_pass</t>
-  </si>
-  <si>
-    <t>HY_Social Science</t>
-  </si>
-  <si>
-    <t>HY_Social Science_total</t>
-  </si>
-  <si>
-    <t>HY_Social Science_pass</t>
-  </si>
-  <si>
-    <t>HY_Hindi</t>
-  </si>
-  <si>
-    <t>HY_Hindi_total</t>
-  </si>
-  <si>
-    <t>HY_Hindi_pass</t>
-  </si>
-  <si>
-    <t>HY_Science</t>
-  </si>
-  <si>
-    <t>HY_Science_total</t>
-  </si>
-  <si>
-    <t>HY_Science_pass</t>
+    <t>FA-III_Hindi</t>
+  </si>
+  <si>
+    <t>FA-III_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-III_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Maths</t>
+  </si>
+  <si>
+    <t>FA-III_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-III_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Science</t>
+  </si>
+  <si>
+    <t>FA-III_Science_total</t>
+  </si>
+  <si>
+    <t>FA-III_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-III_English II</t>
+  </si>
+  <si>
+    <t>FA-III_English II_total</t>
+  </si>
+  <si>
+    <t>FA-III_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Computer</t>
+  </si>
+  <si>
+    <t>FA-III_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-III_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Social Science</t>
+  </si>
+  <si>
+    <t>FA-III_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-III_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-III_English I</t>
+  </si>
+  <si>
+    <t>FA-III_English I_total</t>
+  </si>
+  <si>
+    <t>FA-III_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Hindi</t>
+  </si>
+  <si>
+    <t>FA-IV_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Maths</t>
+  </si>
+  <si>
+    <t>FA-IV_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Science</t>
+  </si>
+  <si>
+    <t>FA-IV_Science_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_English II</t>
+  </si>
+  <si>
+    <t>FA-IV_English II_total</t>
+  </si>
+  <si>
+    <t>FA-IV_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Computer</t>
+  </si>
+  <si>
+    <t>FA-IV_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Social Science</t>
+  </si>
+  <si>
+    <t>FA-IV_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_English I</t>
+  </si>
+  <si>
+    <t>FA-IV_English I_total</t>
+  </si>
+  <si>
+    <t>FA-IV_English I_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Hindi</t>
+  </si>
+  <si>
+    <t>ANNUAL_Hindi_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Hindi_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Maths</t>
+  </si>
+  <si>
+    <t>ANNUAL_Maths_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Maths_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Science</t>
+  </si>
+  <si>
+    <t>ANNUAL_Science_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Science_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_English II</t>
+  </si>
+  <si>
+    <t>ANNUAL_English II_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_English II_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Computer</t>
+  </si>
+  <si>
+    <t>ANNUAL_Computer_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Computer_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Social Science</t>
+  </si>
+  <si>
+    <t>ANNUAL_Social Science_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Social Science_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_English I</t>
+  </si>
+  <si>
+    <t>ANNUAL_English I_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_English I_pass</t>
+  </si>
+  <si>
+    <t>Weightage Hindi</t>
   </si>
   <si>
     <t>Weightage Maths</t>
   </si>
   <si>
+    <t>Weightage Science</t>
+  </si>
+  <si>
+    <t>Weightage English II</t>
+  </si>
+  <si>
+    <t>Weightage Computer</t>
+  </si>
+  <si>
+    <t>Weightage Social Science</t>
+  </si>
+  <si>
     <t>Weightage English I</t>
   </si>
   <si>
-    <t>Weightage Computer</t>
-  </si>
-  <si>
-    <t>Weightage English II</t>
-  </si>
-  <si>
-    <t>Weightage Social Science</t>
-  </si>
-  <si>
-    <t>Weightage Hindi</t>
-  </si>
-  <si>
-    <t>Weightage Science</t>
+    <t>Weightage Hindi total</t>
   </si>
   <si>
     <t>Weightage Maths total</t>
   </si>
   <si>
+    <t>Weightage Science total</t>
+  </si>
+  <si>
+    <t>Weightage English II total</t>
+  </si>
+  <si>
+    <t>Weightage Computer total</t>
+  </si>
+  <si>
+    <t>Weightage Social Science total</t>
+  </si>
+  <si>
     <t>Weightage English I total</t>
   </si>
   <si>
-    <t>Weightage Computer total</t>
-  </si>
-  <si>
-    <t>Weightage English II total</t>
-  </si>
-  <si>
-    <t>Weightage Social Science total</t>
-  </si>
-  <si>
-    <t>Weightage Hindi total</t>
-  </si>
-  <si>
-    <t>Weightage Science total</t>
+    <t>Result Hindi</t>
   </si>
   <si>
     <t>Result Maths</t>
   </si>
   <si>
+    <t>Result Science</t>
+  </si>
+  <si>
+    <t>Result English II</t>
+  </si>
+  <si>
+    <t>Result Computer</t>
+  </si>
+  <si>
+    <t>Result Social Science</t>
+  </si>
+  <si>
     <t>Result English I</t>
-  </si>
-  <si>
-    <t>Result Computer</t>
-  </si>
-  <si>
-    <t>Result English II</t>
-  </si>
-  <si>
-    <t>Result Social Science</t>
-  </si>
-  <si>
-    <t>Result Hindi</t>
-  </si>
-  <si>
-    <t>Result Science</t>
   </si>
   <si>
     <t>Total Weightage</t>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -996,7 +996,7 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>25</v>
@@ -1005,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -1014,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O2">
         <v>25</v>
@@ -1023,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="R2">
         <v>25</v>
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="T2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U2">
         <v>25</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AA2">
         <v>25</v>
@@ -1059,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="AC2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>25</v>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="AF2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG2">
         <v>25</v>
@@ -1077,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="AI2">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AJ2">
         <v>25</v>
@@ -1086,7 +1086,7 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>21.5</v>
+        <v>12</v>
       </c>
       <c r="AM2">
         <v>25</v>
@@ -1095,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP2">
         <v>25</v>
@@ -1104,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="AR2">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AS2">
         <v>25</v>
@@ -1113,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="AU2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AV2">
         <v>100</v>
@@ -1122,7 +1122,7 @@
         <v>30</v>
       </c>
       <c r="AX2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AY2">
         <v>100</v>
@@ -1131,7 +1131,7 @@
         <v>30</v>
       </c>
       <c r="BA2">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="BB2">
         <v>100</v>
@@ -1140,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="BD2">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="BE2">
         <v>100</v>
@@ -1149,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="BG2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BH2">
         <v>100</v>
@@ -1158,7 +1158,7 @@
         <v>30</v>
       </c>
       <c r="BJ2">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="BK2">
         <v>100</v>
@@ -1167,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="BM2">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="BN2">
         <v>100</v>
@@ -1176,25 +1176,25 @@
         <v>30</v>
       </c>
       <c r="BP2">
-        <v>73.2</v>
+        <v>72</v>
       </c>
       <c r="BQ2">
-        <v>69.2</v>
+        <v>80</v>
       </c>
       <c r="BR2">
-        <v>70</v>
+        <v>79.2</v>
       </c>
       <c r="BS2">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="BT2">
-        <v>75.8</v>
+        <v>67.8</v>
       </c>
       <c r="BU2">
-        <v>66.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="BV2">
-        <v>57.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="BW2">
         <v>100</v>
@@ -1239,7 +1239,7 @@
         <v>103</v>
       </c>
       <c r="CK2">
-        <v>467.4</v>
+        <v>528.6</v>
       </c>
       <c r="CL2" t="s">
         <v>103</v>
@@ -1248,7 +1248,7 @@
         <v>700</v>
       </c>
       <c r="CN2">
-        <v>66.77142857142859</v>
+        <v>75.51428571428572</v>
       </c>
       <c r="CO2">
         <v>1</v>
@@ -1268,35 +1268,35 @@
         <v>2</v>
       </c>
       <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>12.5</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>25</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
       <c r="O3">
         <v>25</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="Q3">
-        <v>13.5</v>
+        <v>2.5</v>
       </c>
       <c r="R3">
         <v>25</v>
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="W3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X3">
         <v>25</v>
@@ -1331,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="Z3">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AA3">
         <v>25</v>
@@ -1340,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="AC3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>25</v>
@@ -1349,26 +1349,26 @@
         <v>7</v>
       </c>
       <c r="AF3">
+        <v>12</v>
+      </c>
+      <c r="AG3">
+        <v>25</v>
+      </c>
+      <c r="AH3">
+        <v>7</v>
+      </c>
+      <c r="AI3">
+        <v>19</v>
+      </c>
+      <c r="AJ3">
+        <v>25</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
         <v>10</v>
       </c>
-      <c r="AG3">
-        <v>25</v>
-      </c>
-      <c r="AH3">
-        <v>7</v>
-      </c>
-      <c r="AI3">
-        <v>12</v>
-      </c>
-      <c r="AJ3">
-        <v>25</v>
-      </c>
-      <c r="AK3">
-        <v>7</v>
-      </c>
-      <c r="AL3">
-        <v>10.5</v>
-      </c>
       <c r="AM3">
         <v>25</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="AO3">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP3">
         <v>25</v>
@@ -1385,7 +1385,7 @@
         <v>7</v>
       </c>
       <c r="AR3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AS3">
         <v>25</v>
@@ -1394,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="AU3">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AV3">
         <v>100</v>
@@ -1403,7 +1403,7 @@
         <v>30</v>
       </c>
       <c r="AX3">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AY3">
         <v>100</v>
@@ -1412,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="BA3">
-        <v>45.5</v>
+        <v>56</v>
       </c>
       <c r="BB3">
         <v>100</v>
@@ -1421,7 +1421,7 @@
         <v>30</v>
       </c>
       <c r="BD3">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="BE3">
         <v>100</v>
@@ -1430,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="BG3">
-        <v>44</v>
+        <v>55.5</v>
       </c>
       <c r="BH3">
         <v>100</v>
@@ -1439,7 +1439,7 @@
         <v>30</v>
       </c>
       <c r="BJ3">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="BK3">
         <v>100</v>
@@ -1448,7 +1448,7 @@
         <v>30</v>
       </c>
       <c r="BM3">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="BN3">
         <v>100</v>
@@ -1457,25 +1457,25 @@
         <v>30</v>
       </c>
       <c r="BP3">
-        <v>64.59999999999999</v>
+        <v>54.4</v>
       </c>
       <c r="BQ3">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="BR3">
-        <v>46</v>
+        <v>52.4</v>
       </c>
       <c r="BS3">
-        <v>56.8</v>
+        <v>69.2</v>
       </c>
       <c r="BT3">
-        <v>44.8</v>
+        <v>49.4</v>
       </c>
       <c r="BU3">
-        <v>41.6</v>
+        <v>52.2</v>
       </c>
       <c r="BV3">
-        <v>40.4</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="BW3">
         <v>100</v>
@@ -1520,7 +1520,7 @@
         <v>103</v>
       </c>
       <c r="CK3">
-        <v>337.2</v>
+        <v>410</v>
       </c>
       <c r="CL3" t="s">
         <v>103</v>
@@ -1529,7 +1529,7 @@
         <v>700</v>
       </c>
       <c r="CN3">
-        <v>48.17142857142857</v>
+        <v>58.57142857142858</v>
       </c>
       <c r="CO3">
         <v>2</v>
@@ -1549,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -1558,7 +1558,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>25</v>
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>25</v>
@@ -1576,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O4">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>25</v>
@@ -1594,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U4">
         <v>25</v>
@@ -1603,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="W4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="X4">
         <v>25</v>
@@ -1612,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AA4">
         <v>25</v>
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>25</v>
@@ -1630,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="AF4">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="AG4">
         <v>25</v>
@@ -1639,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="AI4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AJ4">
         <v>25</v>
@@ -1648,7 +1648,7 @@
         <v>7</v>
       </c>
       <c r="AL4">
-        <v>15.5</v>
+        <v>5.5</v>
       </c>
       <c r="AM4">
         <v>25</v>
@@ -1657,17 +1657,17 @@
         <v>7</v>
       </c>
       <c r="AO4">
+        <v>11</v>
+      </c>
+      <c r="AP4">
+        <v>25</v>
+      </c>
+      <c r="AQ4">
+        <v>7</v>
+      </c>
+      <c r="AR4">
         <v>15</v>
       </c>
-      <c r="AP4">
-        <v>25</v>
-      </c>
-      <c r="AQ4">
-        <v>7</v>
-      </c>
-      <c r="AR4">
-        <v>5</v>
-      </c>
       <c r="AS4">
         <v>25</v>
       </c>
@@ -1675,88 +1675,88 @@
         <v>7</v>
       </c>
       <c r="AU4">
+        <v>50</v>
+      </c>
+      <c r="AV4">
+        <v>100</v>
+      </c>
+      <c r="AW4">
+        <v>30</v>
+      </c>
+      <c r="AX4">
+        <v>50</v>
+      </c>
+      <c r="AY4">
+        <v>100</v>
+      </c>
+      <c r="AZ4">
+        <v>30</v>
+      </c>
+      <c r="BA4">
+        <v>56</v>
+      </c>
+      <c r="BB4">
+        <v>100</v>
+      </c>
+      <c r="BC4">
+        <v>30</v>
+      </c>
+      <c r="BD4">
+        <v>42</v>
+      </c>
+      <c r="BE4">
+        <v>100</v>
+      </c>
+      <c r="BF4">
+        <v>30</v>
+      </c>
+      <c r="BG4">
+        <v>53.5</v>
+      </c>
+      <c r="BH4">
+        <v>100</v>
+      </c>
+      <c r="BI4">
+        <v>30</v>
+      </c>
+      <c r="BJ4">
         <v>48</v>
       </c>
-      <c r="AV4">
-        <v>100</v>
-      </c>
-      <c r="AW4">
-        <v>30</v>
-      </c>
-      <c r="AX4">
-        <v>48</v>
-      </c>
-      <c r="AY4">
-        <v>100</v>
-      </c>
-      <c r="AZ4">
-        <v>30</v>
-      </c>
-      <c r="BA4">
-        <v>45.5</v>
-      </c>
-      <c r="BB4">
-        <v>100</v>
-      </c>
-      <c r="BC4">
-        <v>30</v>
-      </c>
-      <c r="BD4">
+      <c r="BK4">
+        <v>100</v>
+      </c>
+      <c r="BL4">
+        <v>30</v>
+      </c>
+      <c r="BM4">
+        <v>76</v>
+      </c>
+      <c r="BN4">
+        <v>100</v>
+      </c>
+      <c r="BO4">
+        <v>30</v>
+      </c>
+      <c r="BP4">
+        <v>48.4</v>
+      </c>
+      <c r="BQ4">
         <v>50</v>
       </c>
-      <c r="BE4">
-        <v>100</v>
-      </c>
-      <c r="BF4">
-        <v>30</v>
-      </c>
-      <c r="BG4">
-        <v>49</v>
-      </c>
-      <c r="BH4">
-        <v>100</v>
-      </c>
-      <c r="BI4">
-        <v>30</v>
-      </c>
-      <c r="BJ4">
-        <v>44</v>
-      </c>
-      <c r="BK4">
-        <v>100</v>
-      </c>
-      <c r="BL4">
-        <v>30</v>
-      </c>
-      <c r="BM4">
-        <v>43</v>
-      </c>
-      <c r="BN4">
-        <v>100</v>
-      </c>
-      <c r="BO4">
-        <v>30</v>
-      </c>
-      <c r="BP4">
-        <v>46</v>
-      </c>
-      <c r="BQ4">
-        <v>49.6</v>
-      </c>
       <c r="BR4">
-        <v>41.8</v>
+        <v>52.2</v>
       </c>
       <c r="BS4">
-        <v>48.2</v>
+        <v>43.6</v>
       </c>
       <c r="BT4">
-        <v>49.4</v>
+        <v>47</v>
       </c>
       <c r="BU4">
-        <v>44</v>
+        <v>44.8</v>
       </c>
       <c r="BV4">
-        <v>39.2</v>
+        <v>72.8</v>
       </c>
       <c r="BW4">
         <v>100</v>
@@ -1801,7 +1801,7 @@
         <v>103</v>
       </c>
       <c r="CK4">
-        <v>318.2</v>
+        <v>358.8</v>
       </c>
       <c r="CL4" t="s">
         <v>103</v>
@@ -1810,7 +1810,7 @@
         <v>700</v>
       </c>
       <c r="CN4">
-        <v>45.45714285714286</v>
+        <v>51.25714285714286</v>
       </c>
       <c r="CO4">
         <v>3</v>
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -1839,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -1848,35 +1848,35 @@
         <v>7</v>
       </c>
       <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>25</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
         <v>8.5</v>
       </c>
-      <c r="L5">
-        <v>25</v>
-      </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-      <c r="O5">
-        <v>25</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>14.5</v>
-      </c>
-      <c r="R5">
-        <v>25</v>
-      </c>
-      <c r="S5">
-        <v>7</v>
-      </c>
-      <c r="T5">
-        <v>6</v>
-      </c>
       <c r="U5">
         <v>25</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="X5">
         <v>25</v>
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="Z5">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AA5">
         <v>25</v>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="AC5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>25</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AF5">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AG5">
         <v>25</v>
@@ -1920,7 +1920,7 @@
         <v>7</v>
       </c>
       <c r="AI5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5">
         <v>25</v>
@@ -1929,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="AL5">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AM5">
         <v>25</v>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="AO5">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP5">
         <v>25</v>
@@ -1947,7 +1947,7 @@
         <v>7</v>
       </c>
       <c r="AR5">
-        <v>3.5</v>
+        <v>20</v>
       </c>
       <c r="AS5">
         <v>25</v>
@@ -1956,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="AU5">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AV5">
         <v>100</v>
@@ -1965,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="AX5">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="AY5">
         <v>100</v>
@@ -1983,7 +1983,7 @@
         <v>30</v>
       </c>
       <c r="BD5">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="BE5">
         <v>100</v>
@@ -1992,7 +1992,7 @@
         <v>30</v>
       </c>
       <c r="BG5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BH5">
         <v>100</v>
@@ -2001,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="BJ5">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="BK5">
         <v>100</v>
@@ -2010,7 +2010,7 @@
         <v>30</v>
       </c>
       <c r="BM5">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="BN5">
         <v>100</v>
@@ -2019,25 +2019,25 @@
         <v>30</v>
       </c>
       <c r="BP5">
-        <v>54.4</v>
+        <v>40.4</v>
       </c>
       <c r="BQ5">
-        <v>40.2</v>
+        <v>56</v>
       </c>
       <c r="BR5">
-        <v>40.8</v>
+        <v>41.6</v>
       </c>
       <c r="BS5">
-        <v>38.4</v>
+        <v>52</v>
       </c>
       <c r="BT5">
-        <v>41.2</v>
+        <v>38</v>
       </c>
       <c r="BU5">
-        <v>31.2</v>
+        <v>49.6</v>
       </c>
       <c r="BV5">
-        <v>38</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="BW5">
         <v>100</v>
@@ -2082,7 +2082,7 @@
         <v>103</v>
       </c>
       <c r="CK5">
-        <v>284.2</v>
+        <v>347.2</v>
       </c>
       <c r="CL5" t="s">
         <v>103</v>
@@ -2091,7 +2091,7 @@
         <v>700</v>
       </c>
       <c r="CN5">
-        <v>40.59999999999999</v>
+        <v>49.60000000000001</v>
       </c>
       <c r="CO5">
         <v>4</v>
@@ -2111,107 +2111,107 @@
         <v>5</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>1.5</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>25</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>1.5</v>
+      </c>
+      <c r="U6">
+        <v>25</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>25</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <v>25</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+      <c r="AC6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>6.5</v>
-      </c>
-      <c r="I6">
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
+      <c r="AD6">
+        <v>25</v>
+      </c>
+      <c r="AE6">
+        <v>7</v>
+      </c>
+      <c r="AF6">
+        <v>7</v>
+      </c>
+      <c r="AG6">
+        <v>25</v>
+      </c>
+      <c r="AH6">
+        <v>7</v>
+      </c>
+      <c r="AI6">
+        <v>13</v>
+      </c>
+      <c r="AJ6">
+        <v>25</v>
+      </c>
+      <c r="AK6">
+        <v>7</v>
+      </c>
+      <c r="AL6">
         <v>5.5</v>
       </c>
-      <c r="L6">
-        <v>25</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>3.5</v>
-      </c>
-      <c r="O6">
-        <v>25</v>
-      </c>
-      <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>25</v>
-      </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>25</v>
-      </c>
-      <c r="V6">
-        <v>7</v>
-      </c>
-      <c r="W6">
-        <v>5</v>
-      </c>
-      <c r="X6">
-        <v>25</v>
-      </c>
-      <c r="Y6">
-        <v>7</v>
-      </c>
-      <c r="Z6">
-        <v>7</v>
-      </c>
-      <c r="AA6">
-        <v>25</v>
-      </c>
-      <c r="AB6">
-        <v>7</v>
-      </c>
-      <c r="AC6">
-        <v>4.5</v>
-      </c>
-      <c r="AD6">
-        <v>25</v>
-      </c>
-      <c r="AE6">
-        <v>7</v>
-      </c>
-      <c r="AF6">
-        <v>4.5</v>
-      </c>
-      <c r="AG6">
-        <v>25</v>
-      </c>
-      <c r="AH6">
-        <v>7</v>
-      </c>
-      <c r="AI6">
-        <v>4.5</v>
-      </c>
-      <c r="AJ6">
-        <v>25</v>
-      </c>
-      <c r="AK6">
-        <v>7</v>
-      </c>
-      <c r="AL6">
-        <v>6</v>
-      </c>
       <c r="AM6">
         <v>25</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>7</v>
       </c>
       <c r="AO6">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AP6">
         <v>25</v>
@@ -2228,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="AR6">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="AS6">
         <v>25</v>
@@ -2237,88 +2237,88 @@
         <v>7</v>
       </c>
       <c r="AU6">
+        <v>40</v>
+      </c>
+      <c r="AV6">
+        <v>100</v>
+      </c>
+      <c r="AW6">
+        <v>30</v>
+      </c>
+      <c r="AX6">
+        <v>31</v>
+      </c>
+      <c r="AY6">
+        <v>100</v>
+      </c>
+      <c r="AZ6">
+        <v>30</v>
+      </c>
+      <c r="BA6">
+        <v>37</v>
+      </c>
+      <c r="BB6">
+        <v>100</v>
+      </c>
+      <c r="BC6">
+        <v>30</v>
+      </c>
+      <c r="BD6">
+        <v>30</v>
+      </c>
+      <c r="BE6">
+        <v>100</v>
+      </c>
+      <c r="BF6">
+        <v>30</v>
+      </c>
+      <c r="BG6">
+        <v>48</v>
+      </c>
+      <c r="BH6">
+        <v>100</v>
+      </c>
+      <c r="BI6">
+        <v>30</v>
+      </c>
+      <c r="BJ6">
+        <v>38</v>
+      </c>
+      <c r="BK6">
+        <v>100</v>
+      </c>
+      <c r="BL6">
+        <v>30</v>
+      </c>
+      <c r="BM6">
+        <v>63</v>
+      </c>
+      <c r="BN6">
+        <v>100</v>
+      </c>
+      <c r="BO6">
+        <v>30</v>
+      </c>
+      <c r="BP6">
+        <v>36</v>
+      </c>
+      <c r="BQ6">
+        <v>31</v>
+      </c>
+      <c r="BR6">
         <v>33</v>
       </c>
-      <c r="AV6">
-        <v>100</v>
-      </c>
-      <c r="AW6">
-        <v>30</v>
-      </c>
-      <c r="AX6">
-        <v>26</v>
-      </c>
-      <c r="AY6">
-        <v>100</v>
-      </c>
-      <c r="AZ6">
-        <v>30</v>
-      </c>
-      <c r="BA6">
-        <v>35</v>
-      </c>
-      <c r="BB6">
-        <v>100</v>
-      </c>
-      <c r="BC6">
-        <v>30</v>
-      </c>
-      <c r="BD6">
-        <v>30</v>
-      </c>
-      <c r="BE6">
-        <v>100</v>
-      </c>
-      <c r="BF6">
-        <v>30</v>
-      </c>
-      <c r="BG6">
-        <v>42</v>
-      </c>
-      <c r="BH6">
-        <v>100</v>
-      </c>
-      <c r="BI6">
-        <v>30</v>
-      </c>
-      <c r="BJ6">
-        <v>24</v>
-      </c>
-      <c r="BK6">
-        <v>100</v>
-      </c>
-      <c r="BL6">
-        <v>30</v>
-      </c>
-      <c r="BM6">
-        <v>32</v>
-      </c>
-      <c r="BN6">
-        <v>100</v>
-      </c>
-      <c r="BO6">
-        <v>30</v>
-      </c>
-      <c r="BP6">
-        <v>29.2</v>
-      </c>
-      <c r="BQ6">
-        <v>25.2</v>
-      </c>
-      <c r="BR6">
-        <v>32</v>
-      </c>
       <c r="BS6">
-        <v>27.2</v>
+        <v>31.2</v>
       </c>
       <c r="BT6">
-        <v>37.6</v>
+        <v>41.4</v>
       </c>
       <c r="BU6">
-        <v>21.6</v>
+        <v>33.2</v>
       </c>
       <c r="BV6">
-        <v>27.8</v>
+        <v>54.4</v>
       </c>
       <c r="BW6">
         <v>100</v>
@@ -2342,37 +2342,37 @@
         <v>100</v>
       </c>
       <c r="CD6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CE6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CF6" t="s">
         <v>103</v>
       </c>
       <c r="CG6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CH6" t="s">
         <v>103</v>
       </c>
       <c r="CI6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CJ6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CK6">
-        <v>200.6</v>
+        <v>260.2</v>
       </c>
       <c r="CL6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CM6">
         <v>700</v>
       </c>
       <c r="CN6">
-        <v>28.65714285714286</v>
+        <v>37.17142857142857</v>
       </c>
       <c r="CO6">
         <v>5</v>
@@ -2401,7 +2401,7 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>25</v>
@@ -2410,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>25</v>
@@ -2419,7 +2419,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O7">
         <v>25</v>
@@ -2428,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="R7">
         <v>25</v>
@@ -2437,43 +2437,43 @@
         <v>7</v>
       </c>
       <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>7</v>
+      </c>
+      <c r="AA7">
+        <v>25</v>
+      </c>
+      <c r="AB7">
+        <v>7</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>25</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
+      </c>
+      <c r="AF7">
         <v>3</v>
-      </c>
-      <c r="U7">
-        <v>25</v>
-      </c>
-      <c r="V7">
-        <v>7</v>
-      </c>
-      <c r="W7">
-        <v>4</v>
-      </c>
-      <c r="X7">
-        <v>25</v>
-      </c>
-      <c r="Y7">
-        <v>7</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>25</v>
-      </c>
-      <c r="AB7">
-        <v>7</v>
-      </c>
-      <c r="AC7">
-        <v>8.5</v>
-      </c>
-      <c r="AD7">
-        <v>25</v>
-      </c>
-      <c r="AE7">
-        <v>7</v>
-      </c>
-      <c r="AF7">
-        <v>4</v>
       </c>
       <c r="AG7">
         <v>25</v>
@@ -2491,7 +2491,7 @@
         <v>7</v>
       </c>
       <c r="AL7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM7">
         <v>25</v>
@@ -2500,17 +2500,17 @@
         <v>7</v>
       </c>
       <c r="AO7">
+        <v>3</v>
+      </c>
+      <c r="AP7">
+        <v>25</v>
+      </c>
+      <c r="AQ7">
+        <v>7</v>
+      </c>
+      <c r="AR7">
         <v>4</v>
       </c>
-      <c r="AP7">
-        <v>25</v>
-      </c>
-      <c r="AQ7">
-        <v>7</v>
-      </c>
-      <c r="AR7">
-        <v>3</v>
-      </c>
       <c r="AS7">
         <v>25</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>7</v>
       </c>
       <c r="AU7">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AV7">
         <v>100</v>
@@ -2527,7 +2527,7 @@
         <v>30</v>
       </c>
       <c r="AX7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AY7">
         <v>100</v>
@@ -2536,7 +2536,7 @@
         <v>30</v>
       </c>
       <c r="BA7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="BB7">
         <v>100</v>
@@ -2545,7 +2545,7 @@
         <v>30</v>
       </c>
       <c r="BD7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="BE7">
         <v>100</v>
@@ -2554,7 +2554,7 @@
         <v>30</v>
       </c>
       <c r="BG7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BH7">
         <v>100</v>
@@ -2563,7 +2563,7 @@
         <v>30</v>
       </c>
       <c r="BJ7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="BK7">
         <v>100</v>
@@ -2572,7 +2572,7 @@
         <v>30</v>
       </c>
       <c r="BM7">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="BN7">
         <v>100</v>
@@ -2581,25 +2581,25 @@
         <v>30</v>
       </c>
       <c r="BP7">
-        <v>12.8</v>
+        <v>28.4</v>
       </c>
       <c r="BQ7">
-        <v>18.8</v>
+        <v>27</v>
       </c>
       <c r="BR7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="BS7">
-        <v>34.8</v>
+        <v>48</v>
       </c>
       <c r="BT7">
-        <v>36.2</v>
+        <v>34.6</v>
       </c>
       <c r="BU7">
-        <v>20.4</v>
+        <v>28.4</v>
       </c>
       <c r="BV7">
-        <v>30</v>
+        <v>48.4</v>
       </c>
       <c r="BW7">
         <v>100</v>
@@ -2629,7 +2629,7 @@
         <v>104</v>
       </c>
       <c r="CF7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CG7" t="s">
         <v>103</v>
@@ -2644,16 +2644,16 @@
         <v>103</v>
       </c>
       <c r="CK7">
-        <v>186</v>
+        <v>238.8</v>
       </c>
       <c r="CL7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CM7">
         <v>700</v>
       </c>
       <c r="CN7">
-        <v>26.57142857142857</v>
+        <v>34.11428571428571</v>
       </c>
       <c r="CO7">
         <v>6</v>
@@ -2673,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>25</v>
@@ -2682,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>25</v>
@@ -2691,7 +2691,7 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
         <v>25</v>
@@ -2700,7 +2700,7 @@
         <v>7</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>25</v>
@@ -2718,7 +2718,7 @@
         <v>7</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>25</v>
@@ -2727,7 +2727,7 @@
         <v>7</v>
       </c>
       <c r="W8">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X8">
         <v>25</v>
@@ -2736,43 +2736,43 @@
         <v>7</v>
       </c>
       <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>25</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>25</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AF8">
+        <v>7</v>
+      </c>
+      <c r="AG8">
+        <v>25</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AI8">
+        <v>10</v>
+      </c>
+      <c r="AJ8">
+        <v>25</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+      <c r="AL8">
         <v>2.5</v>
-      </c>
-      <c r="AA8">
-        <v>25</v>
-      </c>
-      <c r="AB8">
-        <v>7</v>
-      </c>
-      <c r="AC8">
-        <v>7</v>
-      </c>
-      <c r="AD8">
-        <v>25</v>
-      </c>
-      <c r="AE8">
-        <v>7</v>
-      </c>
-      <c r="AF8">
-        <v>2</v>
-      </c>
-      <c r="AG8">
-        <v>25</v>
-      </c>
-      <c r="AH8">
-        <v>7</v>
-      </c>
-      <c r="AI8">
-        <v>8</v>
-      </c>
-      <c r="AJ8">
-        <v>25</v>
-      </c>
-      <c r="AK8">
-        <v>7</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
       </c>
       <c r="AM8">
         <v>25</v>
@@ -2790,7 +2790,7 @@
         <v>7</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS8">
         <v>25</v>
@@ -2808,7 +2808,7 @@
         <v>30</v>
       </c>
       <c r="AX8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AY8">
         <v>100</v>
@@ -2817,7 +2817,7 @@
         <v>30</v>
       </c>
       <c r="BA8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BB8">
         <v>100</v>
@@ -2826,7 +2826,7 @@
         <v>30</v>
       </c>
       <c r="BD8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE8">
         <v>100</v>
@@ -2835,7 +2835,7 @@
         <v>30</v>
       </c>
       <c r="BG8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BH8">
         <v>100</v>
@@ -2844,7 +2844,7 @@
         <v>30</v>
       </c>
       <c r="BJ8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BK8">
         <v>100</v>
@@ -2853,7 +2853,7 @@
         <v>30</v>
       </c>
       <c r="BM8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="BN8">
         <v>100</v>
@@ -2862,25 +2862,25 @@
         <v>30</v>
       </c>
       <c r="BP8">
-        <v>26</v>
+        <v>27.2</v>
       </c>
       <c r="BQ8">
-        <v>12.4</v>
+        <v>30</v>
       </c>
       <c r="BR8">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="BS8">
-        <v>27.2</v>
+        <v>36.4</v>
       </c>
       <c r="BT8">
-        <v>27.2</v>
+        <v>31</v>
       </c>
       <c r="BU8">
-        <v>16.8</v>
+        <v>25.2</v>
       </c>
       <c r="BV8">
-        <v>16.2</v>
+        <v>45.2</v>
       </c>
       <c r="BW8">
         <v>100</v>
@@ -2907,34 +2907,34 @@
         <v>104</v>
       </c>
       <c r="CE8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CF8" t="s">
         <v>104</v>
       </c>
       <c r="CG8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CH8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CI8" t="s">
         <v>104</v>
       </c>
       <c r="CJ8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CK8">
-        <v>154.6</v>
+        <v>224</v>
       </c>
       <c r="CL8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CM8">
         <v>700</v>
       </c>
       <c r="CN8">
-        <v>22.08571428571428</v>
+        <v>32</v>
       </c>
       <c r="CO8">
         <v>7</v>
@@ -2963,7 +2963,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>25</v>
@@ -2972,17 +2972,17 @@
         <v>7</v>
       </c>
       <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
         <v>4</v>
       </c>
-      <c r="L9">
-        <v>25</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
       <c r="O9">
         <v>25</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>25</v>
@@ -3008,7 +3008,7 @@
         <v>7</v>
       </c>
       <c r="W9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>25</v>
@@ -3017,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>25</v>
@@ -3026,7 +3026,7 @@
         <v>7</v>
       </c>
       <c r="AC9">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>25</v>
@@ -3035,7 +3035,7 @@
         <v>7</v>
       </c>
       <c r="AF9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AG9">
         <v>25</v>
@@ -3044,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="AI9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AJ9">
         <v>25</v>
@@ -3053,17 +3053,17 @@
         <v>7</v>
       </c>
       <c r="AL9">
+        <v>3</v>
+      </c>
+      <c r="AM9">
+        <v>25</v>
+      </c>
+      <c r="AN9">
+        <v>7</v>
+      </c>
+      <c r="AO9">
         <v>2</v>
       </c>
-      <c r="AM9">
-        <v>25</v>
-      </c>
-      <c r="AN9">
-        <v>7</v>
-      </c>
-      <c r="AO9">
-        <v>3</v>
-      </c>
       <c r="AP9">
         <v>25</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>7</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9">
         <v>25</v>
@@ -3080,7 +3080,7 @@
         <v>7</v>
       </c>
       <c r="AU9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV9">
         <v>100</v>
@@ -3089,7 +3089,7 @@
         <v>30</v>
       </c>
       <c r="AX9">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY9">
         <v>100</v>
@@ -3098,70 +3098,70 @@
         <v>30</v>
       </c>
       <c r="BA9">
+        <v>35</v>
+      </c>
+      <c r="BB9">
+        <v>100</v>
+      </c>
+      <c r="BC9">
+        <v>30</v>
+      </c>
+      <c r="BD9">
+        <v>30</v>
+      </c>
+      <c r="BE9">
+        <v>100</v>
+      </c>
+      <c r="BF9">
+        <v>30</v>
+      </c>
+      <c r="BG9">
+        <v>46</v>
+      </c>
+      <c r="BH9">
+        <v>100</v>
+      </c>
+      <c r="BI9">
+        <v>30</v>
+      </c>
+      <c r="BJ9">
+        <v>24</v>
+      </c>
+      <c r="BK9">
+        <v>100</v>
+      </c>
+      <c r="BL9">
+        <v>30</v>
+      </c>
+      <c r="BM9">
+        <v>47</v>
+      </c>
+      <c r="BN9">
+        <v>100</v>
+      </c>
+      <c r="BO9">
+        <v>30</v>
+      </c>
+      <c r="BP9">
         <v>20</v>
       </c>
-      <c r="BB9">
-        <v>100</v>
-      </c>
-      <c r="BC9">
-        <v>30</v>
-      </c>
-      <c r="BD9">
-        <v>32</v>
-      </c>
-      <c r="BE9">
-        <v>100</v>
-      </c>
-      <c r="BF9">
-        <v>30</v>
-      </c>
-      <c r="BG9">
-        <v>24</v>
-      </c>
-      <c r="BH9">
-        <v>100</v>
-      </c>
-      <c r="BI9">
-        <v>30</v>
-      </c>
-      <c r="BJ9">
-        <v>12</v>
-      </c>
-      <c r="BK9">
-        <v>100</v>
-      </c>
-      <c r="BL9">
-        <v>30</v>
-      </c>
-      <c r="BM9">
-        <v>16</v>
-      </c>
-      <c r="BN9">
-        <v>100</v>
-      </c>
-      <c r="BO9">
-        <v>30</v>
-      </c>
-      <c r="BP9">
-        <v>22.8</v>
-      </c>
       <c r="BQ9">
-        <v>12.2</v>
+        <v>29</v>
       </c>
       <c r="BR9">
-        <v>18.2</v>
+        <v>29</v>
       </c>
       <c r="BS9">
-        <v>28.4</v>
+        <v>29.6</v>
       </c>
       <c r="BT9">
-        <v>21.8</v>
+        <v>38</v>
       </c>
       <c r="BU9">
-        <v>11.2</v>
+        <v>20.4</v>
       </c>
       <c r="BV9">
-        <v>13.8</v>
+        <v>37.6</v>
       </c>
       <c r="BW9">
         <v>100</v>
@@ -3197,16 +3197,16 @@
         <v>104</v>
       </c>
       <c r="CH9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CI9" t="s">
         <v>104</v>
       </c>
       <c r="CJ9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CK9">
-        <v>128.4</v>
+        <v>203.6</v>
       </c>
       <c r="CL9" t="s">
         <v>104</v>
@@ -3215,7 +3215,7 @@
         <v>700</v>
       </c>
       <c r="CN9">
-        <v>18.34285714285715</v>
+        <v>29.08571428571429</v>
       </c>
       <c r="CO9">
         <v>8</v>
